--- a/Контрольные на 6-й семестр/03_Логистика/Задание/Расчеты.xlsx
+++ b/Контрольные на 6-й семестр/03_Логистика/Задание/Расчеты.xlsx
@@ -4,24 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Диаграмма1" sheetId="4" r:id="rId1"/>
-    <sheet name="Диаграмма2" sheetId="5" r:id="rId2"/>
-    <sheet name="Дин уд. веса" sheetId="6" r:id="rId3"/>
-    <sheet name="ур. мех. погр. раб." sheetId="7" r:id="rId4"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId5"/>
+    <sheet name="Задача 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Диаграмма1" sheetId="4" r:id="rId2"/>
+    <sheet name="Диаграмма2" sheetId="5" r:id="rId3"/>
+    <sheet name="Дин уд. веса" sheetId="6" r:id="rId4"/>
+    <sheet name="ур. мех. погр. раб." sheetId="7" r:id="rId5"/>
+    <sheet name="Задача 2" sheetId="8" r:id="rId6"/>
+    <sheet name="затр. упр. запасами" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_Ref40567048" localSheetId="4">Лист1!$B$70</definedName>
+    <definedName name="_Ref40567048" localSheetId="0">'Задача 1'!$B$70</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="97">
   <si>
     <t>Исходные</t>
   </si>
@@ -676,6 +678,99 @@
   <si>
     <t>Мп=</t>
   </si>
+  <si>
+    <t>Qр=</t>
+  </si>
+  <si>
+    <t>T=</t>
+  </si>
+  <si>
+    <t>Вариант</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h = </t>
+  </si>
+  <si>
+    <t>2,3 руб. + (n/10).</t>
+  </si>
+  <si>
+    <t>р =</t>
+  </si>
+  <si>
+    <t>12000 ед.+ (n∙10);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q: </t>
+  </si>
+  <si>
+    <t>100, 200, 400, 300, 600, 800, 1000 ед.;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> i = </t>
+  </si>
+  <si>
+    <t>0,2 руб. + (n/10);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S = </t>
+  </si>
+  <si>
+    <t>1210 руб. + (n∙10);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">С0 = </t>
+  </si>
+  <si>
+    <t>14,85 руб. + (n/10);</t>
+  </si>
+  <si>
+    <t>g0=</t>
+  </si>
+  <si>
+    <t>gm</t>
+  </si>
+  <si>
+    <t>Размер партии</t>
+  </si>
+  <si>
+    <t>Затраты выполнения заказа, руб</t>
+  </si>
+  <si>
+    <t>Затраты хранения, руб</t>
+  </si>
+  <si>
+    <t>Суммарные затраты, руб</t>
+  </si>
+  <si>
+    <t xml:space="preserve">затраты на поставку единицы продукции </t>
+  </si>
+  <si>
+    <t xml:space="preserve">годовое потребление </t>
+  </si>
+  <si>
+    <t>годовые затраты на хранение продукции</t>
+  </si>
+  <si>
+    <t>размер партии поставки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">годовое производство </t>
+  </si>
+  <si>
+    <t xml:space="preserve">затраты, обусловленные дефицитом </t>
+  </si>
+  <si>
+    <t>gs=</t>
+  </si>
+  <si>
+    <t>Smax</t>
+  </si>
+  <si>
+    <t>Ty</t>
+  </si>
+  <si>
+    <t>Ty норм</t>
+  </si>
 </sst>
 </file>
 
@@ -684,7 +779,7 @@
   <numFmts count="1">
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,16 +856,29 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -841,6 +949,21 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -959,7 +1082,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1041,33 +1164,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1110,7 +1246,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$B$1:$G$1</c:f>
+              <c:f>'Задача 1'!$B$1:$G$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1137,7 +1273,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$12:$G$12</c:f>
+              <c:f>'Задача 1'!$B$12:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1295,7 +1431,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$B$1:$H$1</c:f>
+              <c:f>'Задача 1'!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1325,7 +1461,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$L$21:$L$26</c:f>
+              <c:f>'Задача 1'!$L$21:$L$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1368,7 +1504,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$B$1:$H$1</c:f>
+              <c:f>'Задача 1'!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1398,7 +1534,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$J$73:$J$79</c:f>
+              <c:f>'Задача 1'!$J$73:$J$79</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1554,7 +1690,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$B$1:$H$1</c:f>
+              <c:f>'Задача 1'!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1584,7 +1720,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$13:$G$13</c:f>
+              <c:f>'Задача 1'!$B$13:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1622,7 +1758,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$J$109:$J$115</c:f>
+              <c:f>'Задача 1'!$J$109:$J$115</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1776,7 +1912,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$B$1:$H$1</c:f>
+              <c:f>'Задача 1'!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1806,7 +1942,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$14:$G$14</c:f>
+              <c:f>'Задача 1'!$B$14:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1852,7 +1988,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$B$1:$H$1</c:f>
+              <c:f>'Задача 1'!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1882,7 +2018,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$J$146:$J$152</c:f>
+              <c:f>'Задача 1'!$J$146:$J$152</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2005,6 +2141,391 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Задача 2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Суммарные затраты, руб</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Задача 2'!$C$27:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Задача 2'!$C$30:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>189.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102.46000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>117.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Задача 2'!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Затраты хранения, руб</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Задача 2'!$C$27:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Задача 2'!$C$29:$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Задача 2'!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Затраты выполнения заказа, руб</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Задача 2'!$C$27:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Задача 2'!$C$28:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>179.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="150308736"/>
+        <c:axId val="168166144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="150308736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Размер партии,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> ед.</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="168166144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="168166144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Затраты, руб.</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="150308736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
@@ -2049,115 +2570,18 @@
 </chartsheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9312459" cy="6077107"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9312459" cy="6077107"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9312459" cy="6077107"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9312459" cy="6077107"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2695,6 +3119,351 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9312459" cy="6077107"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9312459" cy="6077107"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9312459" cy="6077107"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9312459" cy="6077107"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>333375</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8193" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s8193"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>533400</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8194" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s8194"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>409575</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8195" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s8195"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>133350</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8196" name="Object 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s8196"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>1428750</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8197" name="Object 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s8197"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9312459" cy="6077107"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -2982,10 +3751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M179"/>
+  <dimension ref="A1:M183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="C180" sqref="C180"/>
+    <sheetView topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="J183" sqref="J183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3141,6 +3910,14 @@
         <v>88</v>
       </c>
     </row>
+    <row r="8" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="5">
+        <v>321</v>
+      </c>
+    </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>1</v>
@@ -3301,6 +4078,14 @@
       <c r="G14" s="1">
         <f t="shared" si="2"/>
         <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16">
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4903,7 +5688,7 @@
         <v>11.33333333333333</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>63</v>
       </c>
@@ -4912,14 +5697,50 @@
         <v>3760.028810880186</v>
       </c>
       <c r="D178">
-        <f>C178/C179</f>
-        <v>6264.724173106375</v>
-      </c>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+        <v>8843.0106099999994</v>
+      </c>
+      <c r="I178" t="s">
+        <v>63</v>
+      </c>
+      <c r="J178">
+        <f>J79*(J154/100)*(1-(J167/100))</f>
+        <v>5107.7507282728238</v>
+      </c>
+      <c r="K178">
+        <f>J178/J179</f>
+        <v>8865.6793621295328</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C179">
         <f>(C152/100)*(1-(C115/100))</f>
         <v>0.60019064</v>
+      </c>
+      <c r="J179">
+        <f>(J152/100)*(1-(J115/100))</f>
+        <v>0.57612626394893041</v>
+      </c>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D181">
+        <f>(7276.88*0.852*(1-0.393))/(0.8776*(1-0.3161))</f>
+        <v>6270.2416824094425</v>
+      </c>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>66</v>
+      </c>
+      <c r="C183">
+        <f>D178*B8</f>
+        <v>2838606.4058099999</v>
+      </c>
+      <c r="I183" t="s">
+        <v>66</v>
+      </c>
+      <c r="J183">
+        <f>K178*B16</f>
+        <v>3094122.0973832072</v>
       </c>
     </row>
   </sheetData>
@@ -5267,4 +6088,462 @@
     </mc:AlternateContent>
   </oleObjects>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="43">
+        <f>14.85+C7/10</f>
+        <v>14.85</v>
+      </c>
+      <c r="D1" s="43">
+        <f>14.85+D7/10</f>
+        <v>16.05</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="43">
+        <f>1210+C7*10</f>
+        <v>1210</v>
+      </c>
+      <c r="D2" s="43">
+        <f>1210+D7*10</f>
+        <v>1330</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="43">
+        <f>0.2+C7/10</f>
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="43">
+        <f>0.2+D7/10</f>
+        <v>1.4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="F4" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="43">
+        <f>12000+C7*10</f>
+        <v>12000</v>
+      </c>
+      <c r="D5" s="43">
+        <f>12000+D7*10</f>
+        <v>12120</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="43">
+        <f>2.3+C7/10</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D6" s="43">
+        <f>2.3+D7/10</f>
+        <v>3.5</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="43">
+        <v>0</v>
+      </c>
+      <c r="D7" s="43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="47">
+        <f>SQRT((2*C1*C2)/C3)</f>
+        <v>423.89267509594924</v>
+      </c>
+      <c r="D16" s="47">
+        <f>SQRT((2*D1*D2)/D3)</f>
+        <v>174.62817642064525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="47">
+        <f>SQRT((2*C1*C2)/(C3*(1-C2/C5)))</f>
+        <v>447.02911810914742</v>
+      </c>
+      <c r="D23" s="47">
+        <f>SQRT((2*D1*D2)/(D3*(1-D2/D5)))</f>
+        <v>185.07804630806035</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="21">
+        <v>100</v>
+      </c>
+      <c r="D27" s="21">
+        <v>200</v>
+      </c>
+      <c r="E27" s="21">
+        <v>400</v>
+      </c>
+      <c r="F27" s="21">
+        <v>500</v>
+      </c>
+      <c r="G27" s="21">
+        <v>600</v>
+      </c>
+      <c r="H27" s="21">
+        <v>800</v>
+      </c>
+      <c r="I27" s="21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="30">
+        <v>179.69</v>
+      </c>
+      <c r="D28" s="30">
+        <v>89.84</v>
+      </c>
+      <c r="E28" s="30">
+        <v>44.92</v>
+      </c>
+      <c r="F28" s="30">
+        <v>35.94</v>
+      </c>
+      <c r="G28" s="30">
+        <v>29.95</v>
+      </c>
+      <c r="H28" s="30">
+        <v>22.46</v>
+      </c>
+      <c r="I28" s="30">
+        <v>17.97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="30">
+        <v>10</v>
+      </c>
+      <c r="D29" s="30">
+        <v>20</v>
+      </c>
+      <c r="E29" s="30">
+        <v>40</v>
+      </c>
+      <c r="F29" s="30">
+        <v>50</v>
+      </c>
+      <c r="G29" s="30">
+        <v>60</v>
+      </c>
+      <c r="H29" s="30">
+        <v>80</v>
+      </c>
+      <c r="I29" s="30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="30">
+        <f>SUM(C28:C29)</f>
+        <v>189.69</v>
+      </c>
+      <c r="D30" s="30">
+        <f>SUM(D28:D29)</f>
+        <v>109.84</v>
+      </c>
+      <c r="E30" s="30">
+        <f t="shared" ref="E30:I30" si="0">SUM(E28:E29)</f>
+        <v>84.92</v>
+      </c>
+      <c r="F30" s="30">
+        <f t="shared" si="0"/>
+        <v>85.94</v>
+      </c>
+      <c r="G30" s="30">
+        <f t="shared" si="0"/>
+        <v>89.95</v>
+      </c>
+      <c r="H30" s="30">
+        <f t="shared" si="0"/>
+        <v>102.46000000000001</v>
+      </c>
+      <c r="I30" s="30">
+        <f t="shared" si="0"/>
+        <v>117.97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="47">
+        <f>C16*SQRT((C3+C6)/C6)</f>
+        <v>441.93866385358911</v>
+      </c>
+      <c r="D40" s="47">
+        <f>D16*SQRT((D3+D6)/D6)</f>
+        <v>206.62284481634649</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="47">
+        <f>C16*SQRT(C6/(C3+C6))</f>
+        <v>406.58357074530193</v>
+      </c>
+      <c r="D47" s="47">
+        <f>D16*SQRT(D6/(D3+D6))</f>
+        <v>147.58774629739034</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="48">
+        <f>C40/C2</f>
+        <v>0.36523856516825548</v>
+      </c>
+      <c r="D53" s="48">
+        <f>D40/D2</f>
+        <v>0.15535552241830564</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="44">
+        <f>C16/C2</f>
+        <v>0.35032452487268534</v>
+      </c>
+      <c r="D54" s="44">
+        <f>D16/D2</f>
+        <v>0.13129938076740244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="8193" r:id="rId3">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>333375</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="8193" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="8194" r:id="rId5">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="8194" r:id="rId5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="8195" r:id="rId7">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId8">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>409575</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="8195" r:id="rId7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="8196" r:id="rId9">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId10">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="8196" r:id="rId9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="8197" r:id="rId11">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId12">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>200025</xdr:colOff>
+                <xdr:row>48</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1428750</xdr:colOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="8197" r:id="rId11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
 </file>
--- a/Контрольные на 6-й семестр/03_Логистика/Задание/Расчеты.xlsx
+++ b/Контрольные на 6-й семестр/03_Логистика/Задание/Расчеты.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Задача 1" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="ур. мех. погр. раб." sheetId="7" r:id="rId5"/>
     <sheet name="Задача 2" sheetId="8" r:id="rId6"/>
     <sheet name="затр. упр. запасами" sheetId="9" r:id="rId7"/>
+    <sheet name="Задача 3" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_Ref40567048" localSheetId="0">'Задача 1'!$B$70</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="108">
   <si>
     <t>Исходные</t>
   </si>
@@ -771,20 +772,308 @@
   <si>
     <t>Ty норм</t>
   </si>
+  <si>
+    <r>
+      <t>С</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Размер партии поставки, ед.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Цена, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>), руб.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Затраты на хранение продукции, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>), руб.</t>
+    </r>
+  </si>
+  <si>
+    <t>0 – 9999</t>
+  </si>
+  <si>
+    <t>10000 – 19999</t>
+  </si>
+  <si>
+    <t>20000 – и более</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Суммарные затраты при </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>∙</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>∙</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>С</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>∙g∙S</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -862,6 +1151,37 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1082,128 +1402,153 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1310,11 +1655,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="138306304"/>
-        <c:axId val="138308224"/>
+        <c:axId val="140079872"/>
+        <c:axId val="140085504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138306304"/>
+        <c:axId val="140079872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1337,14 +1682,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138308224"/>
+        <c:crossAx val="140085504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1352,7 +1696,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138308224"/>
+        <c:axId val="140085504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,14 +1719,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138306304"/>
+        <c:crossAx val="140079872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1565,7 +1908,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1575,11 +1917,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="138733440"/>
-        <c:axId val="138734976"/>
+        <c:axId val="141052928"/>
+        <c:axId val="141067392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138733440"/>
+        <c:axId val="141052928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1602,14 +1944,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138734976"/>
+        <c:crossAx val="141067392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1617,7 +1958,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138734976"/>
+        <c:axId val="141067392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1640,14 +1981,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138733440"/>
+        <c:crossAx val="141052928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1798,11 +2138,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="134239360"/>
-        <c:axId val="134242304"/>
+        <c:axId val="141408128"/>
+        <c:axId val="141410304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134239360"/>
+        <c:axId val="141408128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1824,14 +2164,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134242304"/>
+        <c:crossAx val="141410304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1839,7 +2178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134242304"/>
+        <c:axId val="141410304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1862,14 +2201,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134239360"/>
+        <c:crossAx val="141408128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2058,11 +2396,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="138824704"/>
-        <c:axId val="139080832"/>
+        <c:axId val="141452032"/>
+        <c:axId val="141453952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138824704"/>
+        <c:axId val="141452032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2084,14 +2422,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139080832"/>
+        <c:crossAx val="141453952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2099,7 +2436,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139080832"/>
+        <c:axId val="141453952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2122,14 +2459,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138824704"/>
+        <c:crossAx val="141452032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2422,7 +2758,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2432,11 +2767,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150308736"/>
-        <c:axId val="168166144"/>
+        <c:axId val="141568256"/>
+        <c:axId val="141582720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150308736"/>
+        <c:axId val="141568256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2464,14 +2799,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168166144"/>
+        <c:crossAx val="141582720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2479,7 +2813,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168166144"/>
+        <c:axId val="141582720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2502,21 +2836,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150308736"/>
+        <c:crossAx val="141568256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3441,7 +3773,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9312459" cy="6077107"/>
+    <xdr:ext cx="9304587" cy="6077107"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1"/>
@@ -4144,11 +4476,11 @@
       <c r="I21" s="3">
         <v>1</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="13">
         <f>1/I21</f>
         <v>1</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21" s="13">
         <f>POWER(1/I21,2)</f>
         <v>1</v>
       </c>
@@ -4180,11 +4512,11 @@
       <c r="I22" s="3">
         <v>2</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="13">
         <f t="shared" ref="J22:J26" si="3">1/I22</f>
         <v>0.5</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="13">
         <f t="shared" ref="K22:K26" si="4">POWER(1/I22,2)</f>
         <v>0.25</v>
       </c>
@@ -4216,11 +4548,11 @@
       <c r="I23" s="3">
         <v>3</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="13">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="13">
         <f t="shared" si="4"/>
         <v>0.1111111111111111</v>
       </c>
@@ -4252,11 +4584,11 @@
       <c r="I24" s="3">
         <v>4</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="13">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="13">
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
@@ -4288,11 +4620,11 @@
       <c r="I25" s="3">
         <v>5</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="13">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K25" s="13">
         <f t="shared" si="4"/>
         <v>4.0000000000000008E-2</v>
       </c>
@@ -4324,11 +4656,11 @@
       <c r="I26" s="3">
         <v>6</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="13">
         <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="13">
         <f t="shared" si="4"/>
         <v>2.7777777777777776E-2</v>
       </c>
@@ -4336,59 +4668,59 @@
         <f>G12</f>
         <v>10100</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M26" s="12">
         <f t="shared" si="5"/>
         <v>1683.3333333333333</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="52">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="52">
         <v>1.4910000000000001</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="52">
         <f>SUM(E21:E26)</f>
         <v>38700</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="52">
         <v>14553.33</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="50">
         <f>SUM(J21:J26)</f>
         <v>2.4499999999999997</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="50">
         <f>SUM(K21:K26)</f>
         <v>1.4913888888888889</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="52">
         <f>SUM(L21:L26)</f>
         <v>55500</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27" s="52">
         <f>SUM(M21:M26)</f>
         <v>21413.333333333332</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="11"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -4407,7 +4739,7 @@
       <c r="A54" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="19">
+      <c r="B54" s="14">
         <f>(B26*F27-(C27*E27))/(B26*D27-(C27*C27))</f>
         <v>-2546.2952267708524</v>
       </c>
@@ -4420,7 +4752,7 @@
       <c r="A63" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="24">
+      <c r="B63" s="19">
         <f>$B$44+($B$54/B21)</f>
         <v>4943.4419908272439</v>
       </c>
@@ -4433,8 +4765,8 @@
       <c r="A64" t="s">
         <v>25</v>
       </c>
-      <c r="B64" s="24">
-        <f t="shared" ref="B64:B68" si="6">$B$44+($B$54/B22)</f>
+      <c r="B64" s="19">
+        <f t="shared" ref="B64:B67" si="6">$B$44+($B$54/B22)</f>
         <v>6216.5896042126697</v>
       </c>
       <c r="I64">
@@ -4446,7 +4778,7 @@
       <c r="A65" t="s">
         <v>26</v>
       </c>
-      <c r="B65" s="24">
+      <c r="B65" s="19">
         <f t="shared" si="6"/>
         <v>6640.9721420078122</v>
       </c>
@@ -4459,7 +4791,7 @@
       <c r="A66" t="s">
         <v>27</v>
       </c>
-      <c r="B66" s="24">
+      <c r="B66" s="19">
         <f t="shared" si="6"/>
         <v>6853.163410905383</v>
       </c>
@@ -4472,7 +4804,7 @@
       <c r="A67" t="s">
         <v>28</v>
       </c>
-      <c r="B67" s="24">
+      <c r="B67" s="19">
         <f t="shared" si="6"/>
         <v>6980.4781722439257</v>
       </c>
@@ -4485,7 +4817,7 @@
       <c r="A68" t="s">
         <v>29</v>
       </c>
-      <c r="B68" s="24">
+      <c r="B68" s="19">
         <f>$B$44+($B$54/B26)</f>
         <v>7065.3546798029547</v>
       </c>
@@ -4498,11 +4830,11 @@
       <c r="A69" t="s">
         <v>30</v>
       </c>
-      <c r="B69" s="24">
+      <c r="B69" s="19">
         <f>$B$44+($B$54/12)</f>
         <v>7277.5459487005255</v>
       </c>
-      <c r="I69" s="24">
+      <c r="I69" s="19">
         <f>I44+(I54/12)</f>
         <v>10076.888260254591</v>
       </c>
@@ -4514,127 +4846,127 @@
     </row>
     <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I72" s="20" t="s">
+      <c r="I72" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J72" s="21" t="s">
+      <c r="J72" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C73" s="23">
+      <c r="C73" s="18">
         <f>B63</f>
         <v>4943.4419908272439</v>
       </c>
-      <c r="I73" s="22" t="s">
+      <c r="I73" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J73" s="23">
+      <c r="J73" s="18">
         <f>I63</f>
         <v>7744.6393210749702</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C74" s="23">
+      <c r="C74" s="18">
         <f t="shared" ref="C74:C79" si="8">B64</f>
         <v>6216.5896042126697</v>
       </c>
-      <c r="I74" s="22" t="s">
+      <c r="I74" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J74" s="23">
+      <c r="J74" s="18">
         <f t="shared" ref="J74:J79" si="9">I64</f>
         <v>9016.7751060820374</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C75" s="23">
+      <c r="C75" s="18">
         <f t="shared" si="8"/>
         <v>6640.9721420078122</v>
       </c>
-      <c r="I75" s="22" t="s">
+      <c r="I75" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J75" s="23">
+      <c r="J75" s="18">
         <f t="shared" si="9"/>
         <v>9440.8203677510592</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C76" s="23">
+      <c r="C76" s="18">
         <f t="shared" si="8"/>
         <v>6853.163410905383</v>
       </c>
-      <c r="I76" s="22" t="s">
+      <c r="I76" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J76" s="23">
+      <c r="J76" s="18">
         <f t="shared" si="9"/>
         <v>9652.8429985855691</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C77" s="23">
+      <c r="C77" s="18">
         <f t="shared" si="8"/>
         <v>6980.4781722439257</v>
       </c>
-      <c r="I77" s="22" t="s">
+      <c r="I77" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="J77" s="23">
+      <c r="J77" s="18">
         <f t="shared" si="9"/>
         <v>9780.0565770862759</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C78" s="23">
+      <c r="C78" s="18">
         <f t="shared" si="8"/>
         <v>7065.3546798029547</v>
       </c>
-      <c r="I78" s="22" t="s">
+      <c r="I78" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J78" s="23">
+      <c r="J78" s="18">
         <f t="shared" si="9"/>
         <v>9864.8656294200809</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C79" s="23">
+      <c r="C79" s="18">
         <f t="shared" si="8"/>
         <v>7277.5459487005255</v>
       </c>
-      <c r="I79" s="22" t="s">
+      <c r="I79" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J79" s="23">
+      <c r="J79" s="18">
         <f t="shared" si="9"/>
         <v>10076.888260254591</v>
       </c>
@@ -4877,48 +5209,48 @@
       </c>
     </row>
     <row r="92" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="25" t="s">
+      <c r="B92" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C92" s="25">
+      <c r="C92" s="20">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D92" s="25">
+      <c r="D92" s="20">
         <v>1.4910000000000001</v>
       </c>
-      <c r="E92" s="25">
+      <c r="E92" s="20">
         <v>236</v>
       </c>
-      <c r="F92" s="25">
+      <c r="F92" s="20">
         <v>108.03</v>
       </c>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="25" t="s">
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J92" s="25">
+      <c r="J92" s="20">
         <v>2.4500000000000002</v>
       </c>
-      <c r="K92" s="25">
+      <c r="K92" s="20">
         <v>1.4910000000000001</v>
       </c>
-      <c r="L92" s="25">
+      <c r="L92" s="20">
         <f>SUM(L86:L91)</f>
         <v>68</v>
       </c>
-      <c r="M92" s="25">
+      <c r="M92" s="20">
         <f>SUM(M86:M91)</f>
         <v>39.433333333333337</v>
       </c>
     </row>
     <row r="96" spans="2:13" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B96" s="26" t="s">
+      <c r="B96" s="21" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B99" s="26" t="s">
+      <c r="B99" s="21" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4939,11 +5271,11 @@
       <c r="A103" t="s">
         <v>13</v>
       </c>
-      <c r="B103" s="19">
+      <c r="B103" s="14">
         <f>(B91*F92-(C92*E92))/(B91*D92-(C92*C92))</f>
         <v>23.77441820961441</v>
       </c>
-      <c r="I103" s="19">
+      <c r="I103" s="14">
         <f>(I91*M92-(J92*L92))/(I91*K92-(J92*J92))</f>
         <v>23.781212841854934</v>
       </c>
@@ -4955,16 +5287,16 @@
     </row>
     <row r="107" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="28" t="s">
+      <c r="B108" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C108" s="21" t="s">
+      <c r="C108" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I108" s="28" t="s">
+      <c r="I108" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="J108" s="32" t="s">
+      <c r="J108" s="27" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4972,23 +5304,23 @@
       <c r="A109">
         <v>1</v>
       </c>
-      <c r="B109" s="29" t="s">
+      <c r="B109" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C109" s="30">
+      <c r="C109" s="25">
         <v>53.39</v>
       </c>
-      <c r="D109" s="24">
+      <c r="D109" s="19">
         <f>$B$101+$B$103/A109</f>
         <v>53.399864107355185</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
-      <c r="I109" s="31" t="s">
+      <c r="I109" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="J109" s="33">
+      <c r="J109" s="28">
         <f>$I$101+$I$103/H109</f>
         <v>25.403884264764166</v>
       </c>
@@ -4997,23 +5329,23 @@
       <c r="A110">
         <v>2</v>
       </c>
-      <c r="B110" s="29" t="s">
+      <c r="B110" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C110" s="30">
+      <c r="C110" s="25">
         <v>41.51</v>
       </c>
-      <c r="D110" s="24">
+      <c r="D110" s="19">
         <f t="shared" ref="D110:D115" si="11">$B$101+$B$103/A110</f>
         <v>41.512655002547987</v>
       </c>
       <c r="H110">
         <v>2</v>
       </c>
-      <c r="I110" s="31" t="s">
+      <c r="I110" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="J110" s="33">
+      <c r="J110" s="28">
         <f t="shared" ref="J110:J115" si="12">$I$101+$I$103/H110</f>
         <v>13.5132778438367</v>
       </c>
@@ -5022,23 +5354,23 @@
       <c r="A111">
         <v>3</v>
       </c>
-      <c r="B111" s="29" t="s">
+      <c r="B111" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C111" s="30">
+      <c r="C111" s="25">
         <v>37.549999999999997</v>
       </c>
-      <c r="D111" s="24">
+      <c r="D111" s="19">
         <f t="shared" si="11"/>
         <v>37.550251967612247</v>
       </c>
       <c r="H111">
         <v>3</v>
       </c>
-      <c r="I111" s="31" t="s">
+      <c r="I111" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="J111" s="33">
+      <c r="J111" s="28">
         <f t="shared" si="12"/>
         <v>9.5497423701942097</v>
       </c>
@@ -5047,23 +5379,23 @@
       <c r="A112">
         <v>4</v>
       </c>
-      <c r="B112" s="29" t="s">
+      <c r="B112" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C112" s="30">
+      <c r="C112" s="25">
         <v>35.57</v>
       </c>
-      <c r="D112" s="24">
+      <c r="D112" s="19">
         <f t="shared" si="11"/>
         <v>35.569050450144381</v>
       </c>
       <c r="H112">
         <v>4</v>
       </c>
-      <c r="I112" s="31" t="s">
+      <c r="I112" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="J112" s="33">
+      <c r="J112" s="28">
         <f t="shared" si="12"/>
         <v>7.5679746333729661</v>
       </c>
@@ -5072,23 +5404,23 @@
       <c r="A113">
         <v>5</v>
       </c>
-      <c r="B113" s="29" t="s">
+      <c r="B113" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C113" s="30">
+      <c r="C113" s="25">
         <v>34.380000000000003</v>
       </c>
-      <c r="D113" s="24">
+      <c r="D113" s="19">
         <f t="shared" si="11"/>
         <v>34.380329539663663</v>
       </c>
       <c r="H113">
         <v>5</v>
       </c>
-      <c r="I113" s="31" t="s">
+      <c r="I113" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J113" s="33">
+      <c r="J113" s="28">
         <f t="shared" si="12"/>
         <v>6.3789139912802195</v>
       </c>
@@ -5097,23 +5429,23 @@
       <c r="A114">
         <v>6</v>
       </c>
-      <c r="B114" s="29" t="s">
+      <c r="B114" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C114" s="30">
+      <c r="C114" s="25">
         <v>33.590000000000003</v>
       </c>
-      <c r="D114" s="24">
+      <c r="D114" s="19">
         <f t="shared" si="11"/>
         <v>33.587848932676515</v>
       </c>
       <c r="H114">
         <v>6</v>
       </c>
-      <c r="I114" s="31" t="s">
+      <c r="I114" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="J114" s="33">
+      <c r="J114" s="28">
         <f t="shared" si="12"/>
         <v>5.5862068965517215</v>
       </c>
@@ -5122,29 +5454,29 @@
       <c r="A115">
         <v>12</v>
       </c>
-      <c r="B115" s="29" t="s">
+      <c r="B115" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C115" s="30">
+      <c r="C115" s="25">
         <v>31.61</v>
       </c>
-      <c r="D115" s="24">
+      <c r="D115" s="19">
         <f t="shared" si="11"/>
         <v>31.606647415208645</v>
       </c>
       <c r="H115">
         <v>12</v>
       </c>
-      <c r="I115" s="31" t="s">
+      <c r="I115" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="J115" s="34">
+      <c r="J115" s="29">
         <f t="shared" si="12"/>
         <v>3.604439159730477</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B120" s="35" t="s">
+      <c r="B120" s="30" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5210,7 +5542,7 @@
         <f>B14</f>
         <v>53</v>
       </c>
-      <c r="M123" s="16">
+      <c r="M123" s="13">
         <f>L123/I123</f>
         <v>53</v>
       </c>
@@ -5244,7 +5576,7 @@
         <f>C14</f>
         <v>55</v>
       </c>
-      <c r="M124" s="16">
+      <c r="M124" s="13">
         <f t="shared" ref="M124:M128" si="13">L124/I124</f>
         <v>27.5</v>
       </c>
@@ -5278,7 +5610,7 @@
         <f>D14</f>
         <v>58</v>
       </c>
-      <c r="M125" s="16">
+      <c r="M125" s="13">
         <f t="shared" si="13"/>
         <v>19.333333333333332</v>
       </c>
@@ -5312,7 +5644,7 @@
         <f>E14</f>
         <v>58</v>
       </c>
-      <c r="M126" s="16">
+      <c r="M126" s="13">
         <f t="shared" si="13"/>
         <v>14.5</v>
       </c>
@@ -5346,7 +5678,7 @@
         <f>F14</f>
         <v>59</v>
       </c>
-      <c r="M127" s="16">
+      <c r="M127" s="13">
         <f t="shared" si="13"/>
         <v>11.8</v>
       </c>
@@ -5380,43 +5712,43 @@
         <f>G14</f>
         <v>60</v>
       </c>
-      <c r="M128" s="16">
+      <c r="M128" s="13">
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B129" s="25" t="s">
+      <c r="B129" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C129" s="14">
+      <c r="C129" s="11">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D129" s="14">
+      <c r="D129" s="11">
         <v>1.4910000000000001</v>
       </c>
-      <c r="E129" s="14">
+      <c r="E129" s="11">
         <v>511</v>
       </c>
-      <c r="F129" s="14">
+      <c r="F129" s="11">
         <v>204.73</v>
       </c>
-      <c r="G129" s="27"/>
-      <c r="H129" s="27"/>
-      <c r="I129" s="25" t="s">
+      <c r="G129" s="22"/>
+      <c r="H129" s="22"/>
+      <c r="I129" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="J129" s="14">
+      <c r="J129" s="11">
         <v>2.4500000000000002</v>
       </c>
-      <c r="K129" s="14">
+      <c r="K129" s="11">
         <v>1.4910000000000001</v>
       </c>
-      <c r="L129" s="14">
+      <c r="L129" s="11">
         <f>SUM(L123:L128)</f>
         <v>343</v>
       </c>
-      <c r="M129" s="36">
+      <c r="M129" s="31">
         <f>SUM(M123:M128)</f>
         <v>136.13333333333333</v>
       </c>
@@ -5438,32 +5770,32 @@
       <c r="A140" t="s">
         <v>13</v>
       </c>
-      <c r="B140" s="19">
+      <c r="B140" s="14">
         <f>(B128*F129-(C129*E129))/(B128*D129-(C129*C129))</f>
         <v>-8.0074740954646373</v>
       </c>
-      <c r="I140" s="19">
+      <c r="I140" s="14">
         <f>(I128*M129-(J129*L129))/(I128*K129-(J129*J129))</f>
         <v>-8.0006794632240759</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B143" s="35" t="s">
+      <c r="B143" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="145" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="28" t="s">
+      <c r="B145" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C145" s="21" t="s">
+      <c r="C145" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I145" s="37" t="s">
+      <c r="I145" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="J145" s="38" t="s">
+      <c r="J145" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5471,23 +5803,23 @@
       <c r="A146">
         <v>1</v>
       </c>
-      <c r="B146" s="29" t="s">
+      <c r="B146" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C146" s="30">
+      <c r="C146" s="25">
         <v>80.430000000000007</v>
       </c>
-      <c r="D146" s="24">
+      <c r="D146" s="19">
         <f>B138+B140/A146</f>
         <v>80.428911160183418</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
-      <c r="I146" s="39" t="s">
+      <c r="I146" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="J146" s="33">
+      <c r="J146" s="28">
         <f>$I$138+$I$140/H146</f>
         <v>52.432931317592406</v>
       </c>
@@ -5496,23 +5828,23 @@
       <c r="A147">
         <v>2</v>
       </c>
-      <c r="B147" s="29" t="s">
+      <c r="B147" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C147" s="30">
+      <c r="C147" s="25">
         <v>84.43</v>
       </c>
-      <c r="D147" s="24">
+      <c r="D147" s="19">
         <f t="shared" ref="D147:D152" si="14">$B$138+$B$140/A147</f>
         <v>84.432648207915733</v>
       </c>
       <c r="H147">
         <v>2</v>
       </c>
-      <c r="I147" s="39" t="s">
+      <c r="I147" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="J147" s="33">
+      <c r="J147" s="28">
         <f t="shared" ref="J147:J152" si="15">$I$138+$I$140/H147</f>
         <v>56.433271049204443</v>
       </c>
@@ -5521,23 +5853,23 @@
       <c r="A148">
         <v>3</v>
       </c>
-      <c r="B148" s="29" t="s">
+      <c r="B148" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C148" s="30">
+      <c r="C148" s="25">
         <v>85.76</v>
       </c>
-      <c r="D148" s="24">
+      <c r="D148" s="19">
         <f t="shared" si="14"/>
         <v>85.767227223826495</v>
       </c>
       <c r="H148">
         <v>3</v>
       </c>
-      <c r="I148" s="39" t="s">
+      <c r="I148" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="J148" s="33">
+      <c r="J148" s="28">
         <f t="shared" si="15"/>
         <v>57.766717626408457</v>
       </c>
@@ -5546,23 +5878,23 @@
       <c r="A149">
         <v>4</v>
       </c>
-      <c r="B149" s="29" t="s">
+      <c r="B149" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C149" s="30">
+      <c r="C149" s="25">
         <v>86.43</v>
       </c>
-      <c r="D149" s="24">
+      <c r="D149" s="19">
         <f t="shared" si="14"/>
         <v>86.434516731781883</v>
       </c>
       <c r="H149">
         <v>4</v>
       </c>
-      <c r="I149" s="39" t="s">
+      <c r="I149" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="J149" s="33">
+      <c r="J149" s="28">
         <f t="shared" si="15"/>
         <v>58.433440915010458</v>
       </c>
@@ -5571,23 +5903,23 @@
       <c r="A150">
         <v>5</v>
       </c>
-      <c r="B150" s="29" t="s">
+      <c r="B150" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C150" s="30">
+      <c r="C150" s="25">
         <v>86.83</v>
       </c>
-      <c r="D150" s="24">
+      <c r="D150" s="19">
         <f t="shared" si="14"/>
         <v>86.834890436555128</v>
       </c>
       <c r="H150">
         <v>5</v>
       </c>
-      <c r="I150" s="39" t="s">
+      <c r="I150" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="J150" s="33">
+      <c r="J150" s="28">
         <f t="shared" si="15"/>
         <v>58.833474888171665</v>
       </c>
@@ -5596,23 +5928,23 @@
       <c r="A151">
         <v>6</v>
       </c>
-      <c r="B151" s="29" t="s">
+      <c r="B151" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C151" s="30">
+      <c r="C151" s="25">
         <v>87.09</v>
       </c>
-      <c r="D151" s="24">
+      <c r="D151" s="19">
         <f t="shared" si="14"/>
         <v>87.101806239737272</v>
       </c>
       <c r="H151">
         <v>6</v>
       </c>
-      <c r="I151" s="39" t="s">
+      <c r="I151" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J151" s="33">
+      <c r="J151" s="28">
         <f t="shared" si="15"/>
         <v>59.100164203612465</v>
       </c>
@@ -5621,23 +5953,23 @@
       <c r="A152">
         <v>12</v>
       </c>
-      <c r="B152" s="29" t="s">
+      <c r="B152" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C152" s="30">
+      <c r="C152" s="25">
         <v>87.76</v>
       </c>
-      <c r="D152" s="24">
+      <c r="D152" s="19">
         <f t="shared" si="14"/>
         <v>87.76909574769266</v>
       </c>
       <c r="H152">
         <v>12</v>
       </c>
-      <c r="I152" s="40" t="s">
+      <c r="I152" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="J152" s="34">
+      <c r="J152" s="29">
         <f t="shared" si="15"/>
         <v>59.766887492214472</v>
       </c>
@@ -5653,7 +5985,7 @@
       </c>
     </row>
     <row r="154" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B154" s="41" t="s">
+      <c r="B154" s="36" t="s">
         <v>64</v>
       </c>
       <c r="C154">
@@ -6094,29 +6426,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="44"/>
+    <col min="3" max="4" width="9.140625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="37" t="s">
         <v>79</v>
       </c>
       <c r="B1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="43">
+      <c r="C1" s="38">
         <f>14.85+C7/10</f>
         <v>14.85</v>
       </c>
-      <c r="D1" s="43">
+      <c r="D1" s="38">
         <f>14.85+D7/10</f>
         <v>16.05</v>
       </c>
@@ -6125,17 +6457,17 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="37" t="s">
         <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="38">
         <f>1210+C7*10</f>
         <v>1210</v>
       </c>
-      <c r="D2" s="43">
+      <c r="D2" s="38">
         <f>1210+D7*10</f>
         <v>1330</v>
       </c>
@@ -6144,17 +6476,17 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="37" t="s">
         <v>75</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="38">
         <f>0.2+C7/10</f>
         <v>0.2</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="38">
         <f>0.2+D7/10</f>
         <v>1.4</v>
       </c>
@@ -6163,30 +6495,30 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="37" t="s">
         <v>73</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
       <c r="F4" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="37" t="s">
         <v>71</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="38">
         <f>12000+C7*10</f>
         <v>12000</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="38">
         <f>12000+D7*10</f>
         <v>12120</v>
       </c>
@@ -6195,17 +6527,17 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="37" t="s">
         <v>69</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="38">
         <f>2.3+C7/10</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="38">
         <f>2.3+D7/10</f>
         <v>3.5</v>
       </c>
@@ -6214,13 +6546,13 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="38">
         <v>0</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="38">
         <v>12</v>
       </c>
     </row>
@@ -6228,11 +6560,11 @@
       <c r="A16" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="42">
         <f>SQRT((2*C1*C2)/C3)</f>
         <v>423.89267509594924</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="42">
         <f>SQRT((2*D1*D2)/D3)</f>
         <v>174.62817642064525</v>
       </c>
@@ -6241,123 +6573,123 @@
       <c r="A23" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="42">
         <f>SQRT((2*C1*C2)/(C3*(1-C2/C5)))</f>
         <v>447.02911810914742</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="42">
         <f>SQRT((2*D1*D2)/(D3*(1-D2/D5)))</f>
         <v>185.07804630806035</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="16">
         <v>100</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="16">
         <v>200</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="16">
         <v>400</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="16">
         <v>500</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="16">
         <v>600</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="16">
         <v>800</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="16">
         <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="25">
         <v>179.69</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="25">
         <v>89.84</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="25">
         <v>44.92</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F28" s="25">
         <v>35.94</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="25">
         <v>29.95</v>
       </c>
-      <c r="H28" s="30">
+      <c r="H28" s="25">
         <v>22.46</v>
       </c>
-      <c r="I28" s="30">
+      <c r="I28" s="25">
         <v>17.97</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="25">
         <v>10</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="25">
         <v>20</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="25">
         <v>40</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="25">
         <v>50</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="25">
         <v>60</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="25">
         <v>80</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="25">
         <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="25">
         <f>SUM(C28:C29)</f>
         <v>189.69</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="25">
         <f>SUM(D28:D29)</f>
         <v>109.84</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="25">
         <f t="shared" ref="E30:I30" si="0">SUM(E28:E29)</f>
         <v>84.92</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="25">
         <f t="shared" si="0"/>
         <v>85.94</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G30" s="25">
         <f t="shared" si="0"/>
         <v>89.95</v>
       </c>
-      <c r="H30" s="30">
+      <c r="H30" s="25">
         <f t="shared" si="0"/>
         <v>102.46000000000001</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I30" s="25">
         <f t="shared" si="0"/>
         <v>117.97</v>
       </c>
@@ -6366,11 +6698,11 @@
       <c r="A40" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="47">
+      <c r="C40" s="42">
         <f>C16*SQRT((C3+C6)/C6)</f>
         <v>441.93866385358911</v>
       </c>
-      <c r="D40" s="47">
+      <c r="D40" s="42">
         <f>D16*SQRT((D3+D6)/D6)</f>
         <v>206.62284481634649</v>
       </c>
@@ -6379,11 +6711,11 @@
       <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="47">
+      <c r="C47" s="42">
         <f>C16*SQRT(C6/(C3+C6))</f>
         <v>406.58357074530193</v>
       </c>
-      <c r="D47" s="47">
+      <c r="D47" s="42">
         <f>D16*SQRT(D6/(D3+D6))</f>
         <v>147.58774629739034</v>
       </c>
@@ -6392,11 +6724,11 @@
       <c r="A53" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="48">
+      <c r="C53" s="43">
         <f>C40/C2</f>
         <v>0.36523856516825548</v>
       </c>
-      <c r="D53" s="48">
+      <c r="D53" s="43">
         <f>D40/D2</f>
         <v>0.15535552241830564</v>
       </c>
@@ -6405,11 +6737,11 @@
       <c r="A54" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="44">
+      <c r="C54" s="39">
         <f>C16/C2</f>
         <v>0.35032452487268534</v>
       </c>
-      <c r="D54" s="44">
+      <c r="D54" s="39">
         <f>D16/D2</f>
         <v>0.13129938076740244</v>
       </c>
@@ -6546,4 +6878,938 @@
     </mc:AlternateContent>
   </oleObjects>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:P29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="46">
+        <v>47</v>
+      </c>
+      <c r="G2" s="47">
+        <f>B2+(G4/10)</f>
+        <v>48.2</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="G3" s="38">
+        <f>B3+(G4*1000)</f>
+        <v>1012000</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="38">
+        <v>0</v>
+      </c>
+      <c r="G4" s="38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:16" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="4">
+        <f>C7+$G$4/10</f>
+        <v>5.8</v>
+      </c>
+      <c r="J7" s="4">
+        <f>D7+$G$4/100</f>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="10">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="4">
+        <f>C8+$G$4/10</f>
+        <v>5.3</v>
+      </c>
+      <c r="J8" s="4">
+        <f>D8+$G$4/100</f>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G9" s="10">
+        <v>3</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="4">
+        <f>C9+$G$4/10</f>
+        <v>4.8</v>
+      </c>
+      <c r="J9" s="4">
+        <f>D9+$G$4/100</f>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="49"/>
+      <c r="C12" s="39"/>
+      <c r="D12">
+        <f>C7</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="39"/>
+    </row>
+    <row r="14" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="16">
+        <v>500</v>
+      </c>
+      <c r="C14" s="16">
+        <v>800</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="16">
+        <v>5000</v>
+      </c>
+      <c r="F14" s="16">
+        <v>10000</v>
+      </c>
+      <c r="G14" s="16">
+        <v>20000</v>
+      </c>
+      <c r="H14" s="16">
+        <v>25000</v>
+      </c>
+      <c r="J14" s="56">
+        <v>500</v>
+      </c>
+      <c r="K14" s="27">
+        <v>800</v>
+      </c>
+      <c r="L14" s="27">
+        <v>1000</v>
+      </c>
+      <c r="M14" s="27">
+        <v>5000</v>
+      </c>
+      <c r="N14" s="27">
+        <v>10000</v>
+      </c>
+      <c r="O14" s="27">
+        <v>20000</v>
+      </c>
+      <c r="P14" s="27">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="48" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="60">
+        <f>$B$2/B14*$B$3</f>
+        <v>94000</v>
+      </c>
+      <c r="C15" s="60">
+        <f t="shared" ref="C15:H15" si="0">$B$2/C14*$B$3</f>
+        <v>58750</v>
+      </c>
+      <c r="D15" s="60">
+        <f t="shared" si="0"/>
+        <v>47000</v>
+      </c>
+      <c r="E15" s="60">
+        <f t="shared" si="0"/>
+        <v>9400</v>
+      </c>
+      <c r="F15" s="60">
+        <f t="shared" si="0"/>
+        <v>4700</v>
+      </c>
+      <c r="G15" s="60">
+        <f t="shared" si="0"/>
+        <v>2350</v>
+      </c>
+      <c r="H15" s="60">
+        <f t="shared" si="0"/>
+        <v>1880</v>
+      </c>
+      <c r="I15" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="J15" s="58">
+        <f>$G$2/J14*$G$3</f>
+        <v>97556.800000000003</v>
+      </c>
+      <c r="K15" s="58">
+        <f t="shared" ref="K15:P15" si="1">$G$2/K14*$G$3</f>
+        <v>60973.000000000007</v>
+      </c>
+      <c r="L15" s="58">
+        <f t="shared" si="1"/>
+        <v>48778.400000000001</v>
+      </c>
+      <c r="M15" s="58">
+        <f t="shared" si="1"/>
+        <v>9755.68</v>
+      </c>
+      <c r="N15" s="58">
+        <f t="shared" si="1"/>
+        <v>4877.84</v>
+      </c>
+      <c r="O15" s="58">
+        <f t="shared" si="1"/>
+        <v>2438.92</v>
+      </c>
+      <c r="P15" s="58">
+        <f t="shared" si="1"/>
+        <v>1951.136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="60">
+        <f>($C$7*$D$7*B14)/2</f>
+        <v>804.99999999999989</v>
+      </c>
+      <c r="C16" s="60">
+        <f t="shared" ref="C16:H16" si="2">($C$7*$D$7*C14)/2</f>
+        <v>1288</v>
+      </c>
+      <c r="D16" s="60">
+        <f t="shared" si="2"/>
+        <v>1609.9999999999998</v>
+      </c>
+      <c r="E16" s="60">
+        <f t="shared" si="2"/>
+        <v>8049.9999999999991</v>
+      </c>
+      <c r="F16" s="60">
+        <f t="shared" si="2"/>
+        <v>16099.999999999998</v>
+      </c>
+      <c r="G16" s="60">
+        <f t="shared" si="2"/>
+        <v>32199.999999999996</v>
+      </c>
+      <c r="H16" s="60">
+        <f t="shared" si="2"/>
+        <v>40250</v>
+      </c>
+      <c r="I16" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="58">
+        <f>($I$7*$J$7*J14)/2</f>
+        <v>1188.9999999999998</v>
+      </c>
+      <c r="K16" s="58">
+        <f t="shared" ref="K16:P16" si="3">($I$7*$J$7*K14)/2</f>
+        <v>1902.3999999999996</v>
+      </c>
+      <c r="L16" s="58">
+        <f t="shared" si="3"/>
+        <v>2377.9999999999995</v>
+      </c>
+      <c r="M16" s="58">
+        <f t="shared" si="3"/>
+        <v>11889.999999999998</v>
+      </c>
+      <c r="N16" s="58">
+        <f t="shared" si="3"/>
+        <v>23779.999999999996</v>
+      </c>
+      <c r="O16" s="58">
+        <f t="shared" si="3"/>
+        <v>47559.999999999993</v>
+      </c>
+      <c r="P16" s="58">
+        <f t="shared" si="3"/>
+        <v>59449.999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="60">
+        <f>SUM(B15:B16)</f>
+        <v>94805</v>
+      </c>
+      <c r="C17" s="60">
+        <f t="shared" ref="C17:H17" si="4">SUM(C15:C16)</f>
+        <v>60038</v>
+      </c>
+      <c r="D17" s="60">
+        <f t="shared" si="4"/>
+        <v>48610</v>
+      </c>
+      <c r="E17" s="60">
+        <f t="shared" si="4"/>
+        <v>17450</v>
+      </c>
+      <c r="F17" s="60">
+        <f t="shared" si="4"/>
+        <v>20800</v>
+      </c>
+      <c r="G17" s="60">
+        <f t="shared" si="4"/>
+        <v>34550</v>
+      </c>
+      <c r="H17" s="60">
+        <f t="shared" si="4"/>
+        <v>42130</v>
+      </c>
+      <c r="J17" s="58">
+        <f>SUM(J15:J16)</f>
+        <v>98745.8</v>
+      </c>
+      <c r="K17" s="58">
+        <f t="shared" ref="K17:P17" si="5">SUM(K15:K16)</f>
+        <v>62875.400000000009</v>
+      </c>
+      <c r="L17" s="58">
+        <f t="shared" si="5"/>
+        <v>51156.4</v>
+      </c>
+      <c r="M17" s="58">
+        <f t="shared" si="5"/>
+        <v>21645.68</v>
+      </c>
+      <c r="N17" s="58">
+        <f t="shared" si="5"/>
+        <v>28657.839999999997</v>
+      </c>
+      <c r="O17" s="58">
+        <f t="shared" si="5"/>
+        <v>49998.919999999991</v>
+      </c>
+      <c r="P17" s="58">
+        <f t="shared" si="5"/>
+        <v>61401.135999999991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+    </row>
+    <row r="19" spans="1:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="49"/>
+      <c r="C19" s="39"/>
+      <c r="D19">
+        <f>C8</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+    </row>
+    <row r="20" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="16">
+        <v>500</v>
+      </c>
+      <c r="C20" s="16">
+        <v>800</v>
+      </c>
+      <c r="D20" s="16">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="16">
+        <v>5000</v>
+      </c>
+      <c r="F20" s="16">
+        <v>10000</v>
+      </c>
+      <c r="G20" s="16">
+        <v>20000</v>
+      </c>
+      <c r="H20" s="16">
+        <v>25000</v>
+      </c>
+      <c r="J20" s="60">
+        <v>500</v>
+      </c>
+      <c r="K20" s="61">
+        <v>800</v>
+      </c>
+      <c r="L20" s="61">
+        <v>1000</v>
+      </c>
+      <c r="M20" s="61">
+        <v>5000</v>
+      </c>
+      <c r="N20" s="61">
+        <v>10000</v>
+      </c>
+      <c r="O20" s="61">
+        <v>20000</v>
+      </c>
+      <c r="P20" s="61">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="60">
+        <f>$B$2/B20*$B$3</f>
+        <v>94000</v>
+      </c>
+      <c r="C21" s="60">
+        <f t="shared" ref="C21" si="6">$B$2/C20*$B$3</f>
+        <v>58750</v>
+      </c>
+      <c r="D21" s="60">
+        <f t="shared" ref="D21" si="7">$B$2/D20*$B$3</f>
+        <v>47000</v>
+      </c>
+      <c r="E21" s="60">
+        <f t="shared" ref="E21" si="8">$B$2/E20*$B$3</f>
+        <v>9400</v>
+      </c>
+      <c r="F21" s="60">
+        <f t="shared" ref="F21" si="9">$B$2/F20*$B$3</f>
+        <v>4700</v>
+      </c>
+      <c r="G21" s="60">
+        <f t="shared" ref="G21" si="10">$B$2/G20*$B$3</f>
+        <v>2350</v>
+      </c>
+      <c r="H21" s="60">
+        <f t="shared" ref="H21" si="11">$B$2/H20*$B$3</f>
+        <v>1880</v>
+      </c>
+      <c r="J21" s="58">
+        <f>$G$2/J20*$G$3</f>
+        <v>97556.800000000003</v>
+      </c>
+      <c r="K21" s="58">
+        <f t="shared" ref="K21" si="12">$G$2/K20*$G$3</f>
+        <v>60973.000000000007</v>
+      </c>
+      <c r="L21" s="58">
+        <f t="shared" ref="L21" si="13">$G$2/L20*$G$3</f>
+        <v>48778.400000000001</v>
+      </c>
+      <c r="M21" s="58">
+        <f t="shared" ref="M21" si="14">$G$2/M20*$G$3</f>
+        <v>9755.68</v>
+      </c>
+      <c r="N21" s="58">
+        <f t="shared" ref="N21" si="15">$G$2/N20*$G$3</f>
+        <v>4877.84</v>
+      </c>
+      <c r="O21" s="58">
+        <f t="shared" ref="O21" si="16">$G$2/O20*$G$3</f>
+        <v>2438.92</v>
+      </c>
+      <c r="P21" s="58">
+        <f t="shared" ref="P21" si="17">$G$2/P20*$G$3</f>
+        <v>1951.136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="60">
+        <f>($C$8*$D$8*B20)/2</f>
+        <v>512.5</v>
+      </c>
+      <c r="C22" s="60">
+        <f t="shared" ref="C22:H22" si="18">($C$8*$D$8*C20)/2</f>
+        <v>819.99999999999989</v>
+      </c>
+      <c r="D22" s="60">
+        <f t="shared" si="18"/>
+        <v>1025</v>
+      </c>
+      <c r="E22" s="60">
+        <f t="shared" si="18"/>
+        <v>5125</v>
+      </c>
+      <c r="F22" s="60">
+        <f t="shared" si="18"/>
+        <v>10250</v>
+      </c>
+      <c r="G22" s="60">
+        <f t="shared" si="18"/>
+        <v>20500</v>
+      </c>
+      <c r="H22" s="60">
+        <f t="shared" si="18"/>
+        <v>25624.999999999996</v>
+      </c>
+      <c r="J22" s="58">
+        <f>($I$8*$J$8*J20)/2</f>
+        <v>821.5</v>
+      </c>
+      <c r="K22" s="58">
+        <f t="shared" ref="K22:P22" si="19">($I$8*$J$8*K20)/2</f>
+        <v>1314.4</v>
+      </c>
+      <c r="L22" s="58">
+        <f t="shared" si="19"/>
+        <v>1643</v>
+      </c>
+      <c r="M22" s="58">
+        <f t="shared" si="19"/>
+        <v>8215</v>
+      </c>
+      <c r="N22" s="58">
+        <f t="shared" si="19"/>
+        <v>16430</v>
+      </c>
+      <c r="O22" s="58">
+        <f t="shared" si="19"/>
+        <v>32860</v>
+      </c>
+      <c r="P22" s="58">
+        <f t="shared" si="19"/>
+        <v>41075</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="60">
+        <f>SUM(B21:B22)</f>
+        <v>94512.5</v>
+      </c>
+      <c r="C23" s="60">
+        <f t="shared" ref="C23" si="20">SUM(C21:C22)</f>
+        <v>59570</v>
+      </c>
+      <c r="D23" s="60">
+        <f t="shared" ref="D23" si="21">SUM(D21:D22)</f>
+        <v>48025</v>
+      </c>
+      <c r="E23" s="60">
+        <f t="shared" ref="E23" si="22">SUM(E21:E22)</f>
+        <v>14525</v>
+      </c>
+      <c r="F23" s="60">
+        <f t="shared" ref="F23" si="23">SUM(F21:F22)</f>
+        <v>14950</v>
+      </c>
+      <c r="G23" s="60">
+        <f t="shared" ref="G23" si="24">SUM(G21:G22)</f>
+        <v>22850</v>
+      </c>
+      <c r="H23" s="60">
+        <f t="shared" ref="H23" si="25">SUM(H21:H22)</f>
+        <v>27504.999999999996</v>
+      </c>
+      <c r="J23" s="58">
+        <f>SUM(J21:J22)</f>
+        <v>98378.3</v>
+      </c>
+      <c r="K23" s="58">
+        <f t="shared" ref="K23" si="26">SUM(K21:K22)</f>
+        <v>62287.400000000009</v>
+      </c>
+      <c r="L23" s="58">
+        <f t="shared" ref="L23" si="27">SUM(L21:L22)</f>
+        <v>50421.4</v>
+      </c>
+      <c r="M23" s="58">
+        <f t="shared" ref="M23" si="28">SUM(M21:M22)</f>
+        <v>17970.68</v>
+      </c>
+      <c r="N23" s="58">
+        <f t="shared" ref="N23" si="29">SUM(N21:N22)</f>
+        <v>21307.84</v>
+      </c>
+      <c r="O23" s="58">
+        <f t="shared" ref="O23" si="30">SUM(O21:O22)</f>
+        <v>35298.92</v>
+      </c>
+      <c r="P23" s="58">
+        <f t="shared" ref="P23" si="31">SUM(P21:P22)</f>
+        <v>43026.135999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+    </row>
+    <row r="26" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="16">
+        <v>500</v>
+      </c>
+      <c r="C26" s="16">
+        <v>800</v>
+      </c>
+      <c r="D26" s="16">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="16">
+        <v>5000</v>
+      </c>
+      <c r="F26" s="16">
+        <v>10000</v>
+      </c>
+      <c r="G26" s="16">
+        <v>20000</v>
+      </c>
+      <c r="H26" s="16">
+        <v>25000</v>
+      </c>
+      <c r="J26" s="60">
+        <v>500</v>
+      </c>
+      <c r="K26" s="61">
+        <v>800</v>
+      </c>
+      <c r="L26" s="61">
+        <v>1000</v>
+      </c>
+      <c r="M26" s="61">
+        <v>5000</v>
+      </c>
+      <c r="N26" s="61">
+        <v>10000</v>
+      </c>
+      <c r="O26" s="61">
+        <v>20000</v>
+      </c>
+      <c r="P26" s="61">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="60">
+        <f>$B$2/B26*$B$3</f>
+        <v>94000</v>
+      </c>
+      <c r="C27" s="60">
+        <f t="shared" ref="C27" si="32">$B$2/C26*$B$3</f>
+        <v>58750</v>
+      </c>
+      <c r="D27" s="60">
+        <f t="shared" ref="D27" si="33">$B$2/D26*$B$3</f>
+        <v>47000</v>
+      </c>
+      <c r="E27" s="60">
+        <f t="shared" ref="E27" si="34">$B$2/E26*$B$3</f>
+        <v>9400</v>
+      </c>
+      <c r="F27" s="60">
+        <f t="shared" ref="F27" si="35">$B$2/F26*$B$3</f>
+        <v>4700</v>
+      </c>
+      <c r="G27" s="60">
+        <f t="shared" ref="G27" si="36">$B$2/G26*$B$3</f>
+        <v>2350</v>
+      </c>
+      <c r="H27" s="60">
+        <f t="shared" ref="H27" si="37">$B$2/H26*$B$3</f>
+        <v>1880</v>
+      </c>
+      <c r="J27" s="58">
+        <f>$G$2/J26*$G$3</f>
+        <v>97556.800000000003</v>
+      </c>
+      <c r="K27" s="58">
+        <f t="shared" ref="K27" si="38">$G$2/K26*$G$3</f>
+        <v>60973.000000000007</v>
+      </c>
+      <c r="L27" s="58">
+        <f t="shared" ref="L27" si="39">$G$2/L26*$G$3</f>
+        <v>48778.400000000001</v>
+      </c>
+      <c r="M27" s="58">
+        <f t="shared" ref="M27" si="40">$G$2/M26*$G$3</f>
+        <v>9755.68</v>
+      </c>
+      <c r="N27" s="58">
+        <f t="shared" ref="N27" si="41">$G$2/N26*$G$3</f>
+        <v>4877.84</v>
+      </c>
+      <c r="O27" s="58">
+        <f t="shared" ref="O27" si="42">$G$2/O26*$G$3</f>
+        <v>2438.92</v>
+      </c>
+      <c r="P27" s="58">
+        <f t="shared" ref="P27" si="43">$G$2/P26*$G$3</f>
+        <v>1951.136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="60">
+        <f>($C$9*$D$9*B26)/2</f>
+        <v>360.00000000000006</v>
+      </c>
+      <c r="C28" s="60">
+        <f t="shared" ref="C28:H28" si="44">($C$9*$D$9*C26)/2</f>
+        <v>576.00000000000011</v>
+      </c>
+      <c r="D28" s="60">
+        <f t="shared" si="44"/>
+        <v>720.00000000000011</v>
+      </c>
+      <c r="E28" s="60">
+        <f t="shared" si="44"/>
+        <v>3600.0000000000005</v>
+      </c>
+      <c r="F28" s="60">
+        <f t="shared" si="44"/>
+        <v>7200.0000000000009</v>
+      </c>
+      <c r="G28" s="60">
+        <f t="shared" si="44"/>
+        <v>14400.000000000002</v>
+      </c>
+      <c r="H28" s="60">
+        <f t="shared" si="44"/>
+        <v>18000.000000000004</v>
+      </c>
+      <c r="J28" s="58">
+        <f>($I$9*$J$9*J26)/2</f>
+        <v>624</v>
+      </c>
+      <c r="K28" s="58">
+        <f t="shared" ref="K28:P28" si="45">($I$9*$J$9*K26)/2</f>
+        <v>998.4</v>
+      </c>
+      <c r="L28" s="58">
+        <f t="shared" si="45"/>
+        <v>1248</v>
+      </c>
+      <c r="M28" s="58">
+        <f t="shared" si="45"/>
+        <v>6240</v>
+      </c>
+      <c r="N28" s="58">
+        <f t="shared" si="45"/>
+        <v>12480</v>
+      </c>
+      <c r="O28" s="58">
+        <f t="shared" si="45"/>
+        <v>24960</v>
+      </c>
+      <c r="P28" s="58">
+        <f t="shared" si="45"/>
+        <v>31200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="60">
+        <f>SUM(B27:B28)</f>
+        <v>94360</v>
+      </c>
+      <c r="C29" s="60">
+        <f t="shared" ref="C29" si="46">SUM(C27:C28)</f>
+        <v>59326</v>
+      </c>
+      <c r="D29" s="60">
+        <f t="shared" ref="D29" si="47">SUM(D27:D28)</f>
+        <v>47720</v>
+      </c>
+      <c r="E29" s="60">
+        <f t="shared" ref="E29" si="48">SUM(E27:E28)</f>
+        <v>13000</v>
+      </c>
+      <c r="F29" s="60">
+        <f t="shared" ref="F29" si="49">SUM(F27:F28)</f>
+        <v>11900</v>
+      </c>
+      <c r="G29" s="60">
+        <f t="shared" ref="G29" si="50">SUM(G27:G28)</f>
+        <v>16750</v>
+      </c>
+      <c r="H29" s="60">
+        <f t="shared" ref="H29" si="51">SUM(H27:H28)</f>
+        <v>19880.000000000004</v>
+      </c>
+      <c r="J29" s="58">
+        <f>SUM(J27:J28)</f>
+        <v>98180.800000000003</v>
+      </c>
+      <c r="K29" s="58">
+        <f t="shared" ref="K29" si="52">SUM(K27:K28)</f>
+        <v>61971.400000000009</v>
+      </c>
+      <c r="L29" s="58">
+        <f t="shared" ref="L29" si="53">SUM(L27:L28)</f>
+        <v>50026.400000000001</v>
+      </c>
+      <c r="M29" s="58">
+        <f t="shared" ref="M29" si="54">SUM(M27:M28)</f>
+        <v>15995.68</v>
+      </c>
+      <c r="N29" s="58">
+        <f t="shared" ref="N29" si="55">SUM(N27:N28)</f>
+        <v>17357.84</v>
+      </c>
+      <c r="O29" s="58">
+        <f t="shared" ref="O29" si="56">SUM(O27:O28)</f>
+        <v>27398.92</v>
+      </c>
+      <c r="P29" s="58">
+        <f t="shared" ref="P29" si="57">SUM(P27:P28)</f>
+        <v>33151.135999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Контрольные на 6-й семестр/03_Логистика/Задание/Расчеты.xlsx
+++ b/Контрольные на 6-й семестр/03_Логистика/Задание/Расчеты.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Задача 1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,11 @@
     <sheet name="Задача 2" sheetId="8" r:id="rId6"/>
     <sheet name="затр. упр. запасами" sheetId="9" r:id="rId7"/>
     <sheet name="Задача 3" sheetId="10" r:id="rId8"/>
+    <sheet name="сум. затр.разл. опт. ценах" sheetId="11" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_Ref40567048" localSheetId="0">'Задача 1'!$B$70</definedName>
   </definedNames>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="113">
   <si>
     <t>Исходные</t>
   </si>
@@ -1051,6 +1055,47 @@
       </rPr>
       <t>∙g∙S</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Оптимальный размер заказываемой партии, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>g</t>
+    </r>
+  </si>
+  <si>
+    <t>Рассчитаем оптимальные размеры партий и расходы по их заказу</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Суммарные затраты, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>C</t>
+    </r>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -1402,7 +1447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1519,6 +1564,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1537,18 +1594,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1655,11 +1702,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="140079872"/>
-        <c:axId val="140085504"/>
+        <c:axId val="136694400"/>
+        <c:axId val="136753920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140079872"/>
+        <c:axId val="136694400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1688,7 +1735,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140085504"/>
+        <c:crossAx val="136753920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1696,7 +1743,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140085504"/>
+        <c:axId val="136753920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1725,7 +1772,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140079872"/>
+        <c:crossAx val="136694400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1917,11 +1964,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="141052928"/>
-        <c:axId val="141067392"/>
+        <c:axId val="138372608"/>
+        <c:axId val="138374528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141052928"/>
+        <c:axId val="138372608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,7 +1997,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141067392"/>
+        <c:crossAx val="138374528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1958,7 +2005,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141067392"/>
+        <c:axId val="138374528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1987,7 +2034,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141052928"/>
+        <c:crossAx val="138372608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2138,11 +2185,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="141408128"/>
-        <c:axId val="141410304"/>
+        <c:axId val="138707328"/>
+        <c:axId val="138709248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141408128"/>
+        <c:axId val="138707328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2170,7 +2217,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141410304"/>
+        <c:crossAx val="138709248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2178,7 +2225,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141410304"/>
+        <c:axId val="138709248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2207,7 +2254,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141408128"/>
+        <c:crossAx val="138707328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2396,11 +2443,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="141452032"/>
-        <c:axId val="141453952"/>
+        <c:axId val="138556544"/>
+        <c:axId val="138558464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141452032"/>
+        <c:axId val="138556544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2428,7 +2475,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141453952"/>
+        <c:crossAx val="138558464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2436,7 +2483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141453952"/>
+        <c:axId val="138558464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2465,7 +2512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141452032"/>
+        <c:crossAx val="138556544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2767,11 +2814,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="141568256"/>
-        <c:axId val="141582720"/>
+        <c:axId val="138916608"/>
+        <c:axId val="138918528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141568256"/>
+        <c:axId val="138916608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2805,7 +2852,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141582720"/>
+        <c:crossAx val="138918528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2813,7 +2860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141582720"/>
+        <c:axId val="138918528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2842,7 +2889,1064 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141568256"/>
+        <c:crossAx val="138916608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Задача 3'!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4,6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Задача 3'!$B$26:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Задача 3'!$B$17:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>94805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60038</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48610</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17450</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34550</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Задача 3'!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4,1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Задача 3'!$B$26:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Задача 3'!$B$23:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>94512.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59570</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14525</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14950</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22850</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27504.999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Задача 3'!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3,6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Задача 3'!$B$26:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Задача 3'!$B$29:$H$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>94360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59326</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47720</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19880.000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="138979968"/>
+        <c:axId val="138998528"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="138979968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1800">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Размер партии, ед.</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="138998528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="138998528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1800">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Суммарные затраты, руб.</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="138979968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Первая цена Cu(1)</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Задача 3'!$B$26:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Задача 3'!$J$17:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>98745.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62875.400000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51156.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21645.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28657.839999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49998.919999999991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61401.135999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Вторая цена Cu(2)</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Задача 3'!$B$26:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Задача 3'!$J$23:$P$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>98378.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62287.400000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50421.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17970.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21307.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35298.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43026.135999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Третья цена Cu(3)</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Задача 3'!$B$26:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Задача 3'!$J$29:$P$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>98180.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61971.400000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50026.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15995.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17357.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27398.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33151.135999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="138836224"/>
+        <c:axId val="138846592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="138836224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1800">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Размер партии, ед.</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="138846592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="138846592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1800">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Суммарные затраты, руб.</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="138836224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Задача 3'!$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4,6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Задача 3'!$B$26:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Задача 3'!$B$17:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>94805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60038</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48610</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17450</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34550</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Задача 3'!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4,1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Задача 3'!$B$26:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Задача 3'!$B$23:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>94512.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59570</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14525</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14950</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22850</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27504.999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Задача 3'!$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Задача 3'!$B$26:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Задача 3'!$B$29:$H$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>94360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59326</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47720</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19880.000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="139671808"/>
+        <c:axId val="139673984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="139671808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1800">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Размер партии, ед.</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="139673984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="139673984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1800">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Суммарные затраты, руб.</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="139671808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2903,6 +4007,17 @@
 </file>
 
 <file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
@@ -3796,6 +4911,95 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="114301" y="10715625"/>
+    <xdr:ext cx="6953250" cy="4476907"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="7239000" y="10715625"/>
+    <xdr:ext cx="6953250" cy="4476907"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9312459" cy="6077107"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -4674,53 +5878,53 @@
       </c>
     </row>
     <row r="27" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="52">
+      <c r="C27" s="58">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D27" s="52">
+      <c r="D27" s="58">
         <v>1.4910000000000001</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="58">
         <f>SUM(E21:E26)</f>
         <v>38700</v>
       </c>
-      <c r="F27" s="52">
+      <c r="F27" s="58">
         <v>14553.33</v>
       </c>
-      <c r="I27" s="54" t="s">
+      <c r="I27" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="50">
+      <c r="J27" s="56">
         <f>SUM(J21:J26)</f>
         <v>2.4499999999999997</v>
       </c>
-      <c r="K27" s="50">
+      <c r="K27" s="56">
         <f>SUM(K21:K26)</f>
         <v>1.4913888888888889</v>
       </c>
-      <c r="L27" s="52">
+      <c r="L27" s="58">
         <f>SUM(L21:L26)</f>
         <v>55500</v>
       </c>
-      <c r="M27" s="52">
+      <c r="M27" s="58">
         <f>SUM(M21:M26)</f>
         <v>21413.333333333332</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="55"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -6882,10 +8086,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P29"/>
+  <dimension ref="A2:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:H28"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6898,6 +8102,7 @@
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="22.5" x14ac:dyDescent="0.4">
@@ -7093,7 +8298,7 @@
       <c r="H14" s="16">
         <v>25000</v>
       </c>
-      <c r="J14" s="56">
+      <c r="J14" s="50">
         <v>500</v>
       </c>
       <c r="K14" s="27">
@@ -7119,62 +8324,62 @@
       <c r="A15" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="60">
+      <c r="B15" s="54">
         <f>$B$2/B14*$B$3</f>
         <v>94000</v>
       </c>
-      <c r="C15" s="60">
+      <c r="C15" s="54">
         <f t="shared" ref="C15:H15" si="0">$B$2/C14*$B$3</f>
         <v>58750</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="54">
         <f t="shared" si="0"/>
         <v>47000</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="54">
         <f t="shared" si="0"/>
         <v>9400</v>
       </c>
-      <c r="F15" s="60">
+      <c r="F15" s="54">
         <f t="shared" si="0"/>
         <v>4700</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="54">
         <f t="shared" si="0"/>
         <v>2350</v>
       </c>
-      <c r="H15" s="60">
+      <c r="H15" s="54">
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="I15" s="57" t="s">
+      <c r="I15" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="J15" s="58">
+      <c r="J15" s="52">
         <f>$G$2/J14*$G$3</f>
         <v>97556.800000000003</v>
       </c>
-      <c r="K15" s="58">
+      <c r="K15" s="52">
         <f t="shared" ref="K15:P15" si="1">$G$2/K14*$G$3</f>
         <v>60973.000000000007</v>
       </c>
-      <c r="L15" s="58">
+      <c r="L15" s="52">
         <f t="shared" si="1"/>
         <v>48778.400000000001</v>
       </c>
-      <c r="M15" s="58">
+      <c r="M15" s="52">
         <f t="shared" si="1"/>
         <v>9755.68</v>
       </c>
-      <c r="N15" s="58">
+      <c r="N15" s="52">
         <f t="shared" si="1"/>
         <v>4877.84</v>
       </c>
-      <c r="O15" s="58">
+      <c r="O15" s="52">
         <f t="shared" si="1"/>
         <v>2438.92</v>
       </c>
-      <c r="P15" s="58">
+      <c r="P15" s="52">
         <f t="shared" si="1"/>
         <v>1951.136</v>
       </c>
@@ -7183,62 +8388,62 @@
       <c r="A16" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="60">
+      <c r="B16" s="54">
         <f>($C$7*$D$7*B14)/2</f>
         <v>804.99999999999989</v>
       </c>
-      <c r="C16" s="60">
+      <c r="C16" s="54">
         <f t="shared" ref="C16:H16" si="2">($C$7*$D$7*C14)/2</f>
         <v>1288</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D16" s="54">
         <f t="shared" si="2"/>
         <v>1609.9999999999998</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="54">
         <f t="shared" si="2"/>
         <v>8049.9999999999991</v>
       </c>
-      <c r="F16" s="60">
+      <c r="F16" s="54">
         <f t="shared" si="2"/>
         <v>16099.999999999998</v>
       </c>
-      <c r="G16" s="60">
+      <c r="G16" s="54">
         <f t="shared" si="2"/>
         <v>32199.999999999996</v>
       </c>
-      <c r="H16" s="60">
+      <c r="H16" s="54">
         <f t="shared" si="2"/>
         <v>40250</v>
       </c>
       <c r="I16" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="J16" s="58">
+      <c r="J16" s="52">
         <f>($I$7*$J$7*J14)/2</f>
         <v>1188.9999999999998</v>
       </c>
-      <c r="K16" s="58">
+      <c r="K16" s="52">
         <f t="shared" ref="K16:P16" si="3">($I$7*$J$7*K14)/2</f>
         <v>1902.3999999999996</v>
       </c>
-      <c r="L16" s="58">
+      <c r="L16" s="52">
         <f t="shared" si="3"/>
         <v>2377.9999999999995</v>
       </c>
-      <c r="M16" s="58">
+      <c r="M16" s="52">
         <f t="shared" si="3"/>
         <v>11889.999999999998</v>
       </c>
-      <c r="N16" s="58">
+      <c r="N16" s="52">
         <f t="shared" si="3"/>
         <v>23779.999999999996</v>
       </c>
-      <c r="O16" s="58">
+      <c r="O16" s="52">
         <f t="shared" si="3"/>
         <v>47559.999999999993</v>
       </c>
-      <c r="P16" s="58">
+      <c r="P16" s="52">
         <f t="shared" si="3"/>
         <v>59449.999999999993</v>
       </c>
@@ -7247,71 +8452,71 @@
       <c r="A17" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="60">
+      <c r="B17" s="54">
         <f>SUM(B15:B16)</f>
         <v>94805</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="54">
         <f t="shared" ref="C17:H17" si="4">SUM(C15:C16)</f>
         <v>60038</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="54">
         <f t="shared" si="4"/>
         <v>48610</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="54">
         <f t="shared" si="4"/>
         <v>17450</v>
       </c>
-      <c r="F17" s="60">
+      <c r="F17" s="54">
         <f t="shared" si="4"/>
         <v>20800</v>
       </c>
-      <c r="G17" s="60">
+      <c r="G17" s="54">
         <f t="shared" si="4"/>
         <v>34550</v>
       </c>
-      <c r="H17" s="60">
+      <c r="H17" s="54">
         <f t="shared" si="4"/>
         <v>42130</v>
       </c>
-      <c r="J17" s="58">
+      <c r="J17" s="52">
         <f>SUM(J15:J16)</f>
         <v>98745.8</v>
       </c>
-      <c r="K17" s="58">
+      <c r="K17" s="52">
         <f t="shared" ref="K17:P17" si="5">SUM(K15:K16)</f>
         <v>62875.400000000009</v>
       </c>
-      <c r="L17" s="58">
+      <c r="L17" s="52">
         <f t="shared" si="5"/>
         <v>51156.4</v>
       </c>
-      <c r="M17" s="58">
+      <c r="M17" s="52">
         <f t="shared" si="5"/>
         <v>21645.68</v>
       </c>
-      <c r="N17" s="58">
+      <c r="N17" s="52">
         <f t="shared" si="5"/>
         <v>28657.839999999997</v>
       </c>
-      <c r="O17" s="58">
+      <c r="O17" s="52">
         <f t="shared" si="5"/>
         <v>49998.919999999991</v>
       </c>
-      <c r="P17" s="58">
+      <c r="P17" s="52">
         <f t="shared" si="5"/>
         <v>61401.135999999991</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
     </row>
     <row r="19" spans="1:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="48" t="s">
@@ -7323,13 +8528,13 @@
         <f>C8</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
     </row>
     <row r="20" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -7356,25 +8561,25 @@
       <c r="H20" s="16">
         <v>25000</v>
       </c>
-      <c r="J20" s="60">
+      <c r="J20" s="54">
         <v>500</v>
       </c>
-      <c r="K20" s="61">
+      <c r="K20" s="55">
         <v>800</v>
       </c>
-      <c r="L20" s="61">
+      <c r="L20" s="55">
         <v>1000</v>
       </c>
-      <c r="M20" s="61">
+      <c r="M20" s="55">
         <v>5000</v>
       </c>
-      <c r="N20" s="61">
+      <c r="N20" s="55">
         <v>10000</v>
       </c>
-      <c r="O20" s="61">
+      <c r="O20" s="55">
         <v>20000</v>
       </c>
-      <c r="P20" s="61">
+      <c r="P20" s="55">
         <v>25000</v>
       </c>
     </row>
@@ -7382,59 +8587,59 @@
       <c r="A21" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="60">
+      <c r="B21" s="54">
         <f>$B$2/B20*$B$3</f>
         <v>94000</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="54">
         <f t="shared" ref="C21" si="6">$B$2/C20*$B$3</f>
         <v>58750</v>
       </c>
-      <c r="D21" s="60">
+      <c r="D21" s="54">
         <f t="shared" ref="D21" si="7">$B$2/D20*$B$3</f>
         <v>47000</v>
       </c>
-      <c r="E21" s="60">
+      <c r="E21" s="54">
         <f t="shared" ref="E21" si="8">$B$2/E20*$B$3</f>
         <v>9400</v>
       </c>
-      <c r="F21" s="60">
+      <c r="F21" s="54">
         <f t="shared" ref="F21" si="9">$B$2/F20*$B$3</f>
         <v>4700</v>
       </c>
-      <c r="G21" s="60">
+      <c r="G21" s="54">
         <f t="shared" ref="G21" si="10">$B$2/G20*$B$3</f>
         <v>2350</v>
       </c>
-      <c r="H21" s="60">
+      <c r="H21" s="54">
         <f t="shared" ref="H21" si="11">$B$2/H20*$B$3</f>
         <v>1880</v>
       </c>
-      <c r="J21" s="58">
+      <c r="J21" s="52">
         <f>$G$2/J20*$G$3</f>
         <v>97556.800000000003</v>
       </c>
-      <c r="K21" s="58">
+      <c r="K21" s="52">
         <f t="shared" ref="K21" si="12">$G$2/K20*$G$3</f>
         <v>60973.000000000007</v>
       </c>
-      <c r="L21" s="58">
+      <c r="L21" s="52">
         <f t="shared" ref="L21" si="13">$G$2/L20*$G$3</f>
         <v>48778.400000000001</v>
       </c>
-      <c r="M21" s="58">
+      <c r="M21" s="52">
         <f t="shared" ref="M21" si="14">$G$2/M20*$G$3</f>
         <v>9755.68</v>
       </c>
-      <c r="N21" s="58">
+      <c r="N21" s="52">
         <f t="shared" ref="N21" si="15">$G$2/N20*$G$3</f>
         <v>4877.84</v>
       </c>
-      <c r="O21" s="58">
+      <c r="O21" s="52">
         <f t="shared" ref="O21" si="16">$G$2/O20*$G$3</f>
         <v>2438.92</v>
       </c>
-      <c r="P21" s="58">
+      <c r="P21" s="52">
         <f t="shared" ref="P21" si="17">$G$2/P20*$G$3</f>
         <v>1951.136</v>
       </c>
@@ -7443,59 +8648,59 @@
       <c r="A22" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="60">
+      <c r="B22" s="54">
         <f>($C$8*$D$8*B20)/2</f>
         <v>512.5</v>
       </c>
-      <c r="C22" s="60">
+      <c r="C22" s="54">
         <f t="shared" ref="C22:H22" si="18">($C$8*$D$8*C20)/2</f>
         <v>819.99999999999989</v>
       </c>
-      <c r="D22" s="60">
+      <c r="D22" s="54">
         <f t="shared" si="18"/>
         <v>1025</v>
       </c>
-      <c r="E22" s="60">
+      <c r="E22" s="54">
         <f t="shared" si="18"/>
         <v>5125</v>
       </c>
-      <c r="F22" s="60">
+      <c r="F22" s="54">
         <f t="shared" si="18"/>
         <v>10250</v>
       </c>
-      <c r="G22" s="60">
+      <c r="G22" s="54">
         <f t="shared" si="18"/>
         <v>20500</v>
       </c>
-      <c r="H22" s="60">
+      <c r="H22" s="54">
         <f t="shared" si="18"/>
         <v>25624.999999999996</v>
       </c>
-      <c r="J22" s="58">
+      <c r="J22" s="52">
         <f>($I$8*$J$8*J20)/2</f>
         <v>821.5</v>
       </c>
-      <c r="K22" s="58">
+      <c r="K22" s="52">
         <f t="shared" ref="K22:P22" si="19">($I$8*$J$8*K20)/2</f>
         <v>1314.4</v>
       </c>
-      <c r="L22" s="58">
+      <c r="L22" s="52">
         <f t="shared" si="19"/>
         <v>1643</v>
       </c>
-      <c r="M22" s="58">
+      <c r="M22" s="52">
         <f t="shared" si="19"/>
         <v>8215</v>
       </c>
-      <c r="N22" s="58">
+      <c r="N22" s="52">
         <f t="shared" si="19"/>
         <v>16430</v>
       </c>
-      <c r="O22" s="58">
+      <c r="O22" s="52">
         <f t="shared" si="19"/>
         <v>32860</v>
       </c>
-      <c r="P22" s="58">
+      <c r="P22" s="52">
         <f t="shared" si="19"/>
         <v>41075</v>
       </c>
@@ -7504,80 +8709,80 @@
       <c r="A23" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="60">
+      <c r="B23" s="54">
         <f>SUM(B21:B22)</f>
         <v>94512.5</v>
       </c>
-      <c r="C23" s="60">
+      <c r="C23" s="54">
         <f t="shared" ref="C23" si="20">SUM(C21:C22)</f>
         <v>59570</v>
       </c>
-      <c r="D23" s="60">
+      <c r="D23" s="54">
         <f t="shared" ref="D23" si="21">SUM(D21:D22)</f>
         <v>48025</v>
       </c>
-      <c r="E23" s="60">
+      <c r="E23" s="54">
         <f t="shared" ref="E23" si="22">SUM(E21:E22)</f>
         <v>14525</v>
       </c>
-      <c r="F23" s="60">
+      <c r="F23" s="54">
         <f t="shared" ref="F23" si="23">SUM(F21:F22)</f>
         <v>14950</v>
       </c>
-      <c r="G23" s="60">
+      <c r="G23" s="54">
         <f t="shared" ref="G23" si="24">SUM(G21:G22)</f>
         <v>22850</v>
       </c>
-      <c r="H23" s="60">
+      <c r="H23" s="54">
         <f t="shared" ref="H23" si="25">SUM(H21:H22)</f>
         <v>27504.999999999996</v>
       </c>
-      <c r="J23" s="58">
+      <c r="J23" s="52">
         <f>SUM(J21:J22)</f>
         <v>98378.3</v>
       </c>
-      <c r="K23" s="58">
+      <c r="K23" s="52">
         <f t="shared" ref="K23" si="26">SUM(K21:K22)</f>
         <v>62287.400000000009</v>
       </c>
-      <c r="L23" s="58">
+      <c r="L23" s="52">
         <f t="shared" ref="L23" si="27">SUM(L21:L22)</f>
         <v>50421.4</v>
       </c>
-      <c r="M23" s="58">
+      <c r="M23" s="52">
         <f t="shared" ref="M23" si="28">SUM(M21:M22)</f>
         <v>17970.68</v>
       </c>
-      <c r="N23" s="58">
+      <c r="N23" s="52">
         <f t="shared" ref="N23" si="29">SUM(N21:N22)</f>
         <v>21307.84</v>
       </c>
-      <c r="O23" s="58">
+      <c r="O23" s="52">
         <f t="shared" ref="O23" si="30">SUM(O21:O22)</f>
         <v>35298.92</v>
       </c>
-      <c r="P23" s="58">
+      <c r="P23" s="52">
         <f t="shared" ref="P23" si="31">SUM(P21:P22)</f>
         <v>43026.135999999999</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
     </row>
     <row r="26" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -7604,25 +8809,25 @@
       <c r="H26" s="16">
         <v>25000</v>
       </c>
-      <c r="J26" s="60">
+      <c r="J26" s="54">
         <v>500</v>
       </c>
-      <c r="K26" s="61">
+      <c r="K26" s="55">
         <v>800</v>
       </c>
-      <c r="L26" s="61">
+      <c r="L26" s="55">
         <v>1000</v>
       </c>
-      <c r="M26" s="61">
+      <c r="M26" s="55">
         <v>5000</v>
       </c>
-      <c r="N26" s="61">
+      <c r="N26" s="55">
         <v>10000</v>
       </c>
-      <c r="O26" s="61">
+      <c r="O26" s="55">
         <v>20000</v>
       </c>
-      <c r="P26" s="61">
+      <c r="P26" s="55">
         <v>25000</v>
       </c>
     </row>
@@ -7630,59 +8835,59 @@
       <c r="A27" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="60">
+      <c r="B27" s="54">
         <f>$B$2/B26*$B$3</f>
         <v>94000</v>
       </c>
-      <c r="C27" s="60">
+      <c r="C27" s="54">
         <f t="shared" ref="C27" si="32">$B$2/C26*$B$3</f>
         <v>58750</v>
       </c>
-      <c r="D27" s="60">
+      <c r="D27" s="54">
         <f t="shared" ref="D27" si="33">$B$2/D26*$B$3</f>
         <v>47000</v>
       </c>
-      <c r="E27" s="60">
+      <c r="E27" s="54">
         <f t="shared" ref="E27" si="34">$B$2/E26*$B$3</f>
         <v>9400</v>
       </c>
-      <c r="F27" s="60">
+      <c r="F27" s="54">
         <f t="shared" ref="F27" si="35">$B$2/F26*$B$3</f>
         <v>4700</v>
       </c>
-      <c r="G27" s="60">
+      <c r="G27" s="54">
         <f t="shared" ref="G27" si="36">$B$2/G26*$B$3</f>
         <v>2350</v>
       </c>
-      <c r="H27" s="60">
+      <c r="H27" s="54">
         <f t="shared" ref="H27" si="37">$B$2/H26*$B$3</f>
         <v>1880</v>
       </c>
-      <c r="J27" s="58">
+      <c r="J27" s="52">
         <f>$G$2/J26*$G$3</f>
         <v>97556.800000000003</v>
       </c>
-      <c r="K27" s="58">
+      <c r="K27" s="52">
         <f t="shared" ref="K27" si="38">$G$2/K26*$G$3</f>
         <v>60973.000000000007</v>
       </c>
-      <c r="L27" s="58">
+      <c r="L27" s="52">
         <f t="shared" ref="L27" si="39">$G$2/L26*$G$3</f>
         <v>48778.400000000001</v>
       </c>
-      <c r="M27" s="58">
+      <c r="M27" s="52">
         <f t="shared" ref="M27" si="40">$G$2/M26*$G$3</f>
         <v>9755.68</v>
       </c>
-      <c r="N27" s="58">
+      <c r="N27" s="52">
         <f t="shared" ref="N27" si="41">$G$2/N26*$G$3</f>
         <v>4877.84</v>
       </c>
-      <c r="O27" s="58">
+      <c r="O27" s="52">
         <f t="shared" ref="O27" si="42">$G$2/O26*$G$3</f>
         <v>2438.92</v>
       </c>
-      <c r="P27" s="58">
+      <c r="P27" s="52">
         <f t="shared" ref="P27" si="43">$G$2/P26*$G$3</f>
         <v>1951.136</v>
       </c>
@@ -7691,59 +8896,59 @@
       <c r="A28" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="60">
+      <c r="B28" s="54">
         <f>($C$9*$D$9*B26)/2</f>
         <v>360.00000000000006</v>
       </c>
-      <c r="C28" s="60">
+      <c r="C28" s="54">
         <f t="shared" ref="C28:H28" si="44">($C$9*$D$9*C26)/2</f>
         <v>576.00000000000011</v>
       </c>
-      <c r="D28" s="60">
+      <c r="D28" s="54">
         <f t="shared" si="44"/>
         <v>720.00000000000011</v>
       </c>
-      <c r="E28" s="60">
+      <c r="E28" s="54">
         <f t="shared" si="44"/>
         <v>3600.0000000000005</v>
       </c>
-      <c r="F28" s="60">
+      <c r="F28" s="54">
         <f t="shared" si="44"/>
         <v>7200.0000000000009</v>
       </c>
-      <c r="G28" s="60">
+      <c r="G28" s="54">
         <f t="shared" si="44"/>
         <v>14400.000000000002</v>
       </c>
-      <c r="H28" s="60">
+      <c r="H28" s="54">
         <f t="shared" si="44"/>
         <v>18000.000000000004</v>
       </c>
-      <c r="J28" s="58">
+      <c r="J28" s="52">
         <f>($I$9*$J$9*J26)/2</f>
         <v>624</v>
       </c>
-      <c r="K28" s="58">
+      <c r="K28" s="52">
         <f t="shared" ref="K28:P28" si="45">($I$9*$J$9*K26)/2</f>
         <v>998.4</v>
       </c>
-      <c r="L28" s="58">
+      <c r="L28" s="52">
         <f t="shared" si="45"/>
         <v>1248</v>
       </c>
-      <c r="M28" s="58">
+      <c r="M28" s="52">
         <f t="shared" si="45"/>
         <v>6240</v>
       </c>
-      <c r="N28" s="58">
+      <c r="N28" s="52">
         <f t="shared" si="45"/>
         <v>12480</v>
       </c>
-      <c r="O28" s="58">
+      <c r="O28" s="52">
         <f t="shared" si="45"/>
         <v>24960</v>
       </c>
-      <c r="P28" s="58">
+      <c r="P28" s="52">
         <f t="shared" si="45"/>
         <v>31200</v>
       </c>
@@ -7752,64 +8957,138 @@
       <c r="A29" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="60">
+      <c r="B29" s="54">
         <f>SUM(B27:B28)</f>
         <v>94360</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="54">
         <f t="shared" ref="C29" si="46">SUM(C27:C28)</f>
         <v>59326</v>
       </c>
-      <c r="D29" s="60">
+      <c r="D29" s="54">
         <f t="shared" ref="D29" si="47">SUM(D27:D28)</f>
         <v>47720</v>
       </c>
-      <c r="E29" s="60">
+      <c r="E29" s="54">
         <f t="shared" ref="E29" si="48">SUM(E27:E28)</f>
         <v>13000</v>
       </c>
-      <c r="F29" s="60">
+      <c r="F29" s="54">
         <f t="shared" ref="F29" si="49">SUM(F27:F28)</f>
         <v>11900</v>
       </c>
-      <c r="G29" s="60">
+      <c r="G29" s="54">
         <f t="shared" ref="G29" si="50">SUM(G27:G28)</f>
         <v>16750</v>
       </c>
-      <c r="H29" s="60">
+      <c r="H29" s="54">
         <f t="shared" ref="H29" si="51">SUM(H27:H28)</f>
         <v>19880.000000000004</v>
       </c>
-      <c r="J29" s="58">
+      <c r="J29" s="52">
         <f>SUM(J27:J28)</f>
         <v>98180.800000000003</v>
       </c>
-      <c r="K29" s="58">
+      <c r="K29" s="52">
         <f t="shared" ref="K29" si="52">SUM(K27:K28)</f>
         <v>61971.400000000009</v>
       </c>
-      <c r="L29" s="58">
+      <c r="L29" s="52">
         <f t="shared" ref="L29" si="53">SUM(L27:L28)</f>
         <v>50026.400000000001</v>
       </c>
-      <c r="M29" s="58">
+      <c r="M29" s="52">
         <f t="shared" ref="M29" si="54">SUM(M27:M28)</f>
         <v>15995.68</v>
       </c>
-      <c r="N29" s="58">
+      <c r="N29" s="52">
         <f t="shared" ref="N29" si="55">SUM(N27:N28)</f>
         <v>17357.84</v>
       </c>
-      <c r="O29" s="58">
+      <c r="O29" s="52">
         <f t="shared" ref="O29" si="56">SUM(O27:O28)</f>
         <v>27398.92</v>
       </c>
-      <c r="P29" s="58">
+      <c r="P29" s="52">
         <f t="shared" ref="P29" si="57">SUM(P27:P28)</f>
         <v>33151.135999999999</v>
       </c>
     </row>
+    <row r="57" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="E58" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="J58" t="s">
+        <v>111</v>
+      </c>
+      <c r="K58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D59" s="52">
+        <f>SQRT((2*$B$2*$B$3)/(C7*D7))</f>
+        <v>5403.0127321570262</v>
+      </c>
+      <c r="G59" s="38">
+        <f>(($B$2*$B$3)/D59)+(C7*D7*D59)/2</f>
+        <v>17397.700997545624</v>
+      </c>
+      <c r="J59" s="52">
+        <f>SQRT((2*$G$2*$G$3)/(I7*J7))</f>
+        <v>4529.0576647388652</v>
+      </c>
+      <c r="K59" s="63">
+        <f>(($G$2*$G$3)/J59)+(I7*J7*J59)/2</f>
+        <v>21540.198253498042</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D60" s="52">
+        <f>SQRT((2*$B$2*$B$3)/(C8*D8))</f>
+        <v>6771.5329532230271</v>
+      </c>
+      <c r="G60" s="38">
+        <f t="shared" ref="G60:G61" si="58">(($B$2*$B$3)/D60)+(C8*D8*D60)/2</f>
+        <v>13881.642554107204</v>
+      </c>
+      <c r="J60" s="52">
+        <f t="shared" ref="J60:J61" si="59">SQRT((2*$G$2*$G$3)/(I8*J8))</f>
+        <v>5448.726308139394</v>
+      </c>
+      <c r="K60" s="63">
+        <f t="shared" ref="K60:K61" si="60">(($G$2*$G$3)/J60)+(I8*J8*J60)/2</f>
+        <v>17904.51464854605</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D61" s="52">
+        <f>SQRT((2*$B$2*$B$3)/(C9*D9))</f>
+        <v>8079.4664290272149</v>
+      </c>
+      <c r="G61" s="38">
+        <f t="shared" si="58"/>
+        <v>11634.43165779919</v>
+      </c>
+      <c r="J61" s="52">
+        <f t="shared" si="59"/>
+        <v>6251.8202477563609</v>
+      </c>
+      <c r="K61" s="63">
+        <f t="shared" si="60"/>
+        <v>15604.543338399879</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Контрольные на 6-й семестр/03_Логистика/Задание/Расчеты.xlsx
+++ b/Контрольные на 6-й семестр/03_Логистика/Задание/Расчеты.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Задача 1" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,6 @@
     <sheet name="Задача 3" sheetId="10" r:id="rId8"/>
     <sheet name="сум. затр.разл. опт. ценах" sheetId="11" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_Ref40567048" localSheetId="0">'Задача 1'!$B$70</definedName>
   </definedNames>
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="114">
   <si>
     <t>Исходные</t>
   </si>
@@ -1096,6 +1093,42 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>∙</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/2</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1447,7 +1480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1576,6 +1609,8 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1594,8 +1629,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1702,11 +1741,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136694400"/>
-        <c:axId val="136753920"/>
+        <c:axId val="122431360"/>
+        <c:axId val="122440320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136694400"/>
+        <c:axId val="122431360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1735,7 +1774,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136753920"/>
+        <c:crossAx val="122440320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1743,7 +1782,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136753920"/>
+        <c:axId val="122440320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1772,7 +1811,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136694400"/>
+        <c:crossAx val="122431360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1964,11 +2003,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="138372608"/>
-        <c:axId val="138374528"/>
+        <c:axId val="147344768"/>
+        <c:axId val="147371520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138372608"/>
+        <c:axId val="147344768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,7 +2036,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138374528"/>
+        <c:crossAx val="147371520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2005,7 +2044,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138374528"/>
+        <c:axId val="147371520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2034,7 +2073,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138372608"/>
+        <c:crossAx val="147344768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2185,11 +2224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="138707328"/>
-        <c:axId val="138709248"/>
+        <c:axId val="147257600"/>
+        <c:axId val="147849600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138707328"/>
+        <c:axId val="147257600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2217,7 +2256,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138709248"/>
+        <c:crossAx val="147849600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2225,7 +2264,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138709248"/>
+        <c:axId val="147849600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2254,7 +2293,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138707328"/>
+        <c:crossAx val="147257600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2443,11 +2482,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="138556544"/>
-        <c:axId val="138558464"/>
+        <c:axId val="147887232"/>
+        <c:axId val="147889152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138556544"/>
+        <c:axId val="147887232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2475,7 +2514,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138558464"/>
+        <c:crossAx val="147889152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2483,7 +2522,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138558464"/>
+        <c:axId val="147889152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2512,7 +2551,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138556544"/>
+        <c:crossAx val="147887232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2601,30 +2640,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Задача 2'!$C$30:$I$30</c:f>
+              <c:f>'Задача 2'!$L$30:$R$30</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>189.69</c:v>
+                  <c:v>283.46500000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>109.84</c:v>
+                  <c:v>246.73250000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84.92</c:v>
+                  <c:v>333.36624999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85.94</c:v>
+                  <c:v>392.69299999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.95</c:v>
+                  <c:v>455.57749999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>102.46000000000001</c:v>
+                  <c:v>586.68312500000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>117.97</c:v>
+                  <c:v>721.34649999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2688,30 +2727,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Задача 2'!$C$29:$I$29</c:f>
+              <c:f>'Задача 2'!$L$29:$R$29</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2774,30 +2813,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Задача 2'!$C$28:$I$28</c:f>
+              <c:f>'Задача 2'!$L$28:$R$28</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>179.69</c:v>
+                  <c:v>213.465</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.84</c:v>
+                  <c:v>106.7325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.92</c:v>
+                  <c:v>53.366250000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.94</c:v>
+                  <c:v>42.692999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.95</c:v>
+                  <c:v>35.577500000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.46</c:v>
+                  <c:v>26.683125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.97</c:v>
+                  <c:v>21.346499999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2814,11 +2853,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="138916608"/>
-        <c:axId val="138918528"/>
+        <c:axId val="147835136"/>
+        <c:axId val="147984768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138916608"/>
+        <c:axId val="147835136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2846,13 +2885,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138918528"/>
+        <c:crossAx val="147984768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2860,7 +2900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138918528"/>
+        <c:axId val="147984768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2883,19 +2923,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138916608"/>
+        <c:crossAx val="147835136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3172,11 +3214,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="138979968"/>
-        <c:axId val="138998528"/>
+        <c:axId val="148716160"/>
+        <c:axId val="148718336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138979968"/>
+        <c:axId val="148716160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3207,7 +3249,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138998528"/>
+        <c:crossAx val="148718336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3215,7 +3257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138998528"/>
+        <c:axId val="148718336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3247,7 +3289,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138979968"/>
+        <c:crossAx val="148716160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3512,11 +3554,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="138836224"/>
-        <c:axId val="138846592"/>
+        <c:axId val="148748544"/>
+        <c:axId val="148758912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138836224"/>
+        <c:axId val="148748544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3547,7 +3589,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138846592"/>
+        <c:crossAx val="148758912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3555,7 +3597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138846592"/>
+        <c:axId val="148758912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3587,7 +3629,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138836224"/>
+        <c:crossAx val="148748544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3873,11 +3915,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139671808"/>
-        <c:axId val="139673984"/>
+        <c:axId val="148803968"/>
+        <c:axId val="148805888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139671808"/>
+        <c:axId val="148803968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3907,7 +3949,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139673984"/>
+        <c:crossAx val="148805888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3915,7 +3957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139673984"/>
+        <c:axId val="148805888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3946,7 +3988,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139671808"/>
+        <c:crossAx val="148803968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4987,19 +5029,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -5878,53 +5907,53 @@
       </c>
     </row>
     <row r="27" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="58">
+      <c r="C27" s="60">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D27" s="58">
+      <c r="D27" s="60">
         <v>1.4910000000000001</v>
       </c>
-      <c r="E27" s="58">
+      <c r="E27" s="60">
         <f>SUM(E21:E26)</f>
         <v>38700</v>
       </c>
-      <c r="F27" s="58">
+      <c r="F27" s="60">
         <v>14553.33</v>
       </c>
-      <c r="I27" s="60" t="s">
+      <c r="I27" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="56">
+      <c r="J27" s="58">
         <f>SUM(J21:J26)</f>
         <v>2.4499999999999997</v>
       </c>
-      <c r="K27" s="56">
+      <c r="K27" s="58">
         <f>SUM(K21:K26)</f>
         <v>1.4913888888888889</v>
       </c>
-      <c r="L27" s="58">
+      <c r="L27" s="60">
         <f>SUM(L21:L26)</f>
         <v>55500</v>
       </c>
-      <c r="M27" s="58">
+      <c r="M27" s="60">
         <f>SUM(M21:M26)</f>
         <v>21413.333333333332</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="61"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -7628,10 +7657,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G7"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7639,6 +7668,7 @@
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="33.140625" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="39"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
@@ -7773,7 +7803,7 @@
         <v>174.62817642064525</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -7786,8 +7816,8 @@
         <v>185.07804630806035</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="40" t="s">
         <v>83</v>
       </c>
@@ -7813,89 +7843,193 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="25">
-        <v>179.69</v>
-      </c>
-      <c r="D28" s="25">
-        <v>89.84</v>
-      </c>
-      <c r="E28" s="25">
-        <v>44.92</v>
-      </c>
-      <c r="F28" s="25">
-        <v>35.94</v>
-      </c>
-      <c r="G28" s="25">
-        <v>29.95</v>
-      </c>
-      <c r="H28" s="25">
-        <v>22.46</v>
-      </c>
-      <c r="I28" s="25">
-        <v>17.97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="64">
+        <f>$C$1*$C$2/C27</f>
+        <v>179.685</v>
+      </c>
+      <c r="D28" s="64">
+        <f>$C$1*$C$2/D27</f>
+        <v>89.842500000000001</v>
+      </c>
+      <c r="E28" s="64">
+        <f>$C$1*$C$2/E27</f>
+        <v>44.921250000000001</v>
+      </c>
+      <c r="F28" s="64">
+        <f t="shared" ref="F28:I28" si="0">$C$1*$C$2/F27</f>
+        <v>35.936999999999998</v>
+      </c>
+      <c r="G28" s="64">
+        <f t="shared" si="0"/>
+        <v>29.947500000000002</v>
+      </c>
+      <c r="H28" s="64">
+        <f t="shared" si="0"/>
+        <v>22.460625</v>
+      </c>
+      <c r="I28" s="64">
+        <f t="shared" si="0"/>
+        <v>17.968499999999999</v>
+      </c>
+      <c r="J28" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="L28" s="64">
+        <f>$D$1*$D$2/C27</f>
+        <v>213.465</v>
+      </c>
+      <c r="M28" s="64">
+        <f t="shared" ref="M28:R28" si="1">$D$1*$D$2/D27</f>
+        <v>106.7325</v>
+      </c>
+      <c r="N28" s="64">
+        <f t="shared" si="1"/>
+        <v>53.366250000000001</v>
+      </c>
+      <c r="O28" s="64">
+        <f t="shared" si="1"/>
+        <v>42.692999999999998</v>
+      </c>
+      <c r="P28" s="64">
+        <f t="shared" si="1"/>
+        <v>35.577500000000001</v>
+      </c>
+      <c r="Q28" s="64">
+        <f t="shared" si="1"/>
+        <v>26.683125</v>
+      </c>
+      <c r="R28" s="64">
+        <f t="shared" si="1"/>
+        <v>21.346499999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="41" t="s">
         <v>85</v>
       </c>
       <c r="C29" s="25">
+        <f>$C$3*C27/2</f>
         <v>10</v>
       </c>
       <c r="D29" s="25">
+        <f t="shared" ref="D29:I29" si="2">$C$3*D27/2</f>
         <v>20</v>
       </c>
       <c r="E29" s="25">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="F29" s="25">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="G29" s="25">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="H29" s="25">
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="I29" s="25">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J29" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="L29" s="65">
+        <f>$D$3*C27/2</f>
+        <v>70</v>
+      </c>
+      <c r="M29" s="65">
+        <f t="shared" ref="M29:R29" si="3">$D$3*D27/2</f>
+        <v>140</v>
+      </c>
+      <c r="N29" s="65">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+      <c r="O29" s="65">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="P29" s="65">
+        <f t="shared" si="3"/>
+        <v>420</v>
+      </c>
+      <c r="Q29" s="65">
+        <f t="shared" si="3"/>
+        <v>560</v>
+      </c>
+      <c r="R29" s="65">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="41" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="25">
         <f>SUM(C28:C29)</f>
-        <v>189.69</v>
+        <v>189.685</v>
       </c>
       <c r="D30" s="25">
         <f>SUM(D28:D29)</f>
-        <v>109.84</v>
+        <v>109.8425</v>
       </c>
       <c r="E30" s="25">
-        <f t="shared" ref="E30:I30" si="0">SUM(E28:E29)</f>
-        <v>84.92</v>
+        <f t="shared" ref="E30:I30" si="4">SUM(E28:E29)</f>
+        <v>84.921250000000001</v>
       </c>
       <c r="F30" s="25">
-        <f t="shared" si="0"/>
-        <v>85.94</v>
+        <f t="shared" si="4"/>
+        <v>85.936999999999998</v>
       </c>
       <c r="G30" s="25">
-        <f t="shared" si="0"/>
-        <v>89.95</v>
+        <f t="shared" si="4"/>
+        <v>89.947500000000005</v>
       </c>
       <c r="H30" s="25">
-        <f t="shared" si="0"/>
-        <v>102.46000000000001</v>
+        <f t="shared" si="4"/>
+        <v>102.46062499999999</v>
       </c>
       <c r="I30" s="25">
-        <f t="shared" si="0"/>
-        <v>117.97</v>
+        <f t="shared" si="4"/>
+        <v>117.96850000000001</v>
+      </c>
+      <c r="L30" s="64">
+        <f>SUM(L28:L29)</f>
+        <v>283.46500000000003</v>
+      </c>
+      <c r="M30" s="64">
+        <f t="shared" ref="M30:R30" si="5">SUM(M28:M29)</f>
+        <v>246.73250000000002</v>
+      </c>
+      <c r="N30" s="64">
+        <f t="shared" si="5"/>
+        <v>333.36624999999998</v>
+      </c>
+      <c r="O30" s="64">
+        <f t="shared" si="5"/>
+        <v>392.69299999999998</v>
+      </c>
+      <c r="P30" s="64">
+        <f t="shared" si="5"/>
+        <v>455.57749999999999</v>
+      </c>
+      <c r="Q30" s="64">
+        <f t="shared" si="5"/>
+        <v>586.68312500000002</v>
+      </c>
+      <c r="R30" s="64">
+        <f t="shared" si="5"/>
+        <v>721.34649999999999</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -8088,8 +8222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="K64" sqref="K64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9020,10 +9154,10 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="62" t="s">
+      <c r="A58" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="E58" s="62" t="s">
+      <c r="E58" s="56" t="s">
         <v>110</v>
       </c>
       <c r="J58" t="s">
@@ -9046,7 +9180,7 @@
         <f>SQRT((2*$G$2*$G$3)/(I7*J7))</f>
         <v>4529.0576647388652</v>
       </c>
-      <c r="K59" s="63">
+      <c r="K59" s="57">
         <f>(($G$2*$G$3)/J59)+(I7*J7*J59)/2</f>
         <v>21540.198253498042</v>
       </c>
@@ -9064,7 +9198,7 @@
         <f t="shared" ref="J60:J61" si="59">SQRT((2*$G$2*$G$3)/(I8*J8))</f>
         <v>5448.726308139394</v>
       </c>
-      <c r="K60" s="63">
+      <c r="K60" s="57">
         <f t="shared" ref="K60:K61" si="60">(($G$2*$G$3)/J60)+(I8*J8*J60)/2</f>
         <v>17904.51464854605</v>
       </c>
@@ -9082,7 +9216,7 @@
         <f t="shared" si="59"/>
         <v>6251.8202477563609</v>
       </c>
-      <c r="K61" s="63">
+      <c r="K61" s="57">
         <f t="shared" si="60"/>
         <v>15604.543338399879</v>
       </c>
